--- a/Graphs/14次高調波の比較.xlsx
+++ b/Graphs/14次高調波の比較.xlsx
@@ -339,6 +339,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -348,7 +349,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -387,9 +387,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10922055646998928"/>
+          <c:x val="8.3182416160373016E-2"/>
           <c:y val="2.6331538001196888E-2"/>
-          <c:w val="0.87375496142078291"/>
+          <c:w val="0.89979309453542222"/>
           <c:h val="0.87742659636127174"/>
         </c:manualLayout>
       </c:layout>
@@ -403,7 +403,7 @@
             <c:v>測定1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -413,7 +413,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="2"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1239,7 +1239,7 @@
             <c:v>測定2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1249,7 +1249,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="2"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2076,13 +2076,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="783941688"/>
-        <c:axId val="783949136"/>
+        <c:axId val="950356552"/>
+        <c:axId val="950361648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="783941688"/>
+        <c:axId val="950356552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="45"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2102,7 +2103,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2115,10 +2116,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
                   <a:t>XUV-IR delay[fs]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2136,7 +2137,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2174,7 +2175,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2189,12 +2190,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="783949136"/>
+        <c:crossAx val="950361648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="783949136"/>
+        <c:axId val="950361648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,7 +2217,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2229,18 +2230,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
                   <a:t>信号強度</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
                   <a:t>[a.u]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7135980426202915E-2"/>
+              <c:y val="0.336492782152231"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2254,7 +2262,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2292,7 +2300,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2307,7 +2315,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="783941688"/>
+        <c:crossAx val="950356552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2320,17 +2328,54 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.74890144381669799"/>
-          <c:y val="4.3087594302058739E-2"/>
-          <c:w val="0.15065913370998116"/>
-          <c:h val="0.22920463487844989"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="tr"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3271,12 +3316,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="783944824"/>
-        <c:axId val="783945216"/>
+        <c:axId val="950351456"/>
+        <c:axId val="950351848"/>
         <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="783944824"/>
+        <c:axId val="950351456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3318,7 +3363,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3385,12 +3429,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="783945216"/>
+        <c:crossAx val="950351848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="783945216"/>
+        <c:axId val="950351848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3436,7 +3480,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3503,7 +3546,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="783944824"/>
+        <c:crossAx val="950351456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4426,12 +4469,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="783954232"/>
-        <c:axId val="783955016"/>
+        <c:axId val="950370272"/>
+        <c:axId val="950365568"/>
         <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="783954232"/>
+        <c:axId val="950370272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4473,7 +4516,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4540,12 +4582,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="783955016"/>
+        <c:crossAx val="950365568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="783955016"/>
+        <c:axId val="950365568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4591,7 +4633,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4658,7 +4699,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="783954232"/>
+        <c:crossAx val="950370272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5235,11 +5276,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="783955408"/>
-        <c:axId val="783956976"/>
+        <c:axId val="950368704"/>
+        <c:axId val="950373408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="783955408"/>
+        <c:axId val="950368704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5347,12 +5388,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="783956976"/>
+        <c:crossAx val="950373408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="783956976"/>
+        <c:axId val="950373408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5464,7 +5505,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="783955408"/>
+        <c:crossAx val="950368704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8661,29 +8702,29 @@
         <v>1.3299999999998882</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="25">
+    <row r="17" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="22">
         <v>49</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="22">
         <v>35.577499999999894</v>
       </c>
       <c r="C17" s="1">
         <v>7664</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="22">
         <f t="shared" si="0"/>
         <v>-785.52671755725169</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="22">
         <f t="shared" si="1"/>
         <v>-9.2966948778918895E-2</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="22">
         <f t="shared" si="2"/>
         <v>-8.4294163331142841E-2</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="22">
         <f t="shared" si="3"/>
         <v>0.99749999999989214</v>
       </c>
@@ -9633,29 +9674,29 @@
         <v>1.3299999999998953</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="25">
+    <row r="53" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="22">
         <v>85</v>
       </c>
-      <c r="B53" s="25">
+      <c r="B53" s="22">
         <v>19.683999999999891</v>
       </c>
       <c r="C53" s="1">
         <v>6861</v>
       </c>
-      <c r="F53" s="25">
+      <c r="F53" s="22">
         <f t="shared" si="4"/>
         <v>-1588.5267175572517</v>
       </c>
-      <c r="H53" s="25">
+      <c r="H53" s="22">
         <f t="shared" si="5"/>
         <v>-0.1880018574598333</v>
       </c>
-      <c r="I53" s="25">
+      <c r="I53" s="22">
         <f t="shared" si="6"/>
         <v>-0.18023776808650457</v>
       </c>
-      <c r="J53" s="25">
+      <c r="J53" s="22">
         <f t="shared" si="3"/>
         <v>1.0639999999998899</v>
       </c>
@@ -9714,29 +9755,29 @@
         <v>0.53199999999989345</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="25">
+    <row r="56" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="22">
         <v>88</v>
       </c>
-      <c r="B56" s="25">
+      <c r="B56" s="22">
         <v>18.885999999999896</v>
       </c>
       <c r="C56" s="1">
         <v>9380</v>
       </c>
-      <c r="F56" s="25">
+      <c r="F56" s="22">
         <f t="shared" si="4"/>
         <v>930.47328244274831</v>
       </c>
-      <c r="H56" s="25">
+      <c r="H56" s="22">
         <f t="shared" si="5"/>
         <v>0.11012134922413111</v>
       </c>
-      <c r="I56" s="25">
+      <c r="I56" s="22">
         <f t="shared" si="6"/>
         <v>0.12073600573510962</v>
       </c>
-      <c r="J56" s="25">
+      <c r="J56" s="22">
         <f t="shared" si="3"/>
         <v>0.26599999999989521</v>
       </c>
@@ -10443,29 +10484,29 @@
         <v>1.3299999999999947</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="25">
+    <row r="83" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="22">
         <v>115</v>
       </c>
-      <c r="B83" s="25">
+      <c r="B83" s="22">
         <v>9.0883333333332956</v>
       </c>
       <c r="C83" s="1">
         <v>9464</v>
       </c>
-      <c r="F83" s="25">
+      <c r="F83" s="22">
         <f t="shared" si="7"/>
         <v>1014.4732824427483</v>
       </c>
-      <c r="H83" s="25">
+      <c r="H83" s="22">
         <f t="shared" si="5"/>
         <v>0.12006273444106362</v>
       </c>
-      <c r="I83" s="25">
+      <c r="I83" s="22">
         <f t="shared" si="8"/>
         <v>0.13077244757751358</v>
       </c>
-      <c r="J83" s="25">
+      <c r="J83" s="22">
         <f t="shared" si="9"/>
         <v>1.1083333333332952</v>
       </c>
@@ -10551,29 +10592,29 @@
         <v>0.44333333333329605</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="25">
+    <row r="87" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="22">
         <v>119</v>
       </c>
-      <c r="B87" s="25">
+      <c r="B87" s="22">
         <v>8.2016666666665969</v>
       </c>
       <c r="C87" s="1">
         <v>7770</v>
       </c>
-      <c r="F87" s="25">
+      <c r="F87" s="22">
         <f t="shared" si="7"/>
         <v>-679.52671755725169</v>
       </c>
-      <c r="H87" s="25">
+      <c r="H87" s="22">
         <f t="shared" si="5"/>
         <v>-8.0421867433742147E-2</v>
       </c>
-      <c r="I87" s="25">
+      <c r="I87" s="22">
         <f t="shared" si="8"/>
         <v>-7.1629129577633066E-2</v>
       </c>
-      <c r="J87" s="25">
+      <c r="J87" s="22">
         <f t="shared" si="9"/>
         <v>0.22166666666659651</v>
       </c>
@@ -11226,29 +11267,29 @@
         <v>1.3299999999999965</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="25">
+    <row r="112" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="22">
         <v>144</v>
       </c>
-      <c r="B112" s="25">
+      <c r="B112" s="22">
         <v>2.5390909090908949</v>
       </c>
       <c r="C112" s="1">
         <v>7543</v>
       </c>
-      <c r="F112" s="25">
+      <c r="F112" s="22">
         <f t="shared" si="10"/>
         <v>-906.52671755725169</v>
       </c>
-      <c r="H112" s="25">
+      <c r="H112" s="22">
         <f t="shared" si="11"/>
         <v>-0.10728727748426216</v>
       </c>
-      <c r="I112" s="25">
+      <c r="I112" s="22">
         <f t="shared" si="12"/>
         <v>-9.8751418842224742E-2</v>
       </c>
-      <c r="J112" s="25">
+      <c r="J112" s="22">
         <f t="shared" si="9"/>
         <v>1.2090909090908948</v>
       </c>
@@ -15374,18 +15415,18 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="22" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">

--- a/Graphs/14次高調波の比較.xlsx
+++ b/Graphs/14次高調波の比較.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,187 +433,187 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>43.889999999999894</c:v>
+                  <c:v>42.559999999999896</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.446666666666594</c:v>
+                  <c:v>42.116666666666596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.003333333333195</c:v>
+                  <c:v>41.673333333333197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.559999999999896</c:v>
+                  <c:v>41.229999999999897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.894999999999889</c:v>
+                  <c:v>40.564999999999891</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.229999999999897</c:v>
+                  <c:v>39.899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.786666666666598</c:v>
+                  <c:v>39.456666666666599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.343333333333199</c:v>
+                  <c:v>39.0133333333332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.899999999999892</c:v>
+                  <c:v>38.569999999999894</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.234999999999893</c:v>
+                  <c:v>37.904999999999895</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.569999999999894</c:v>
+                  <c:v>37.239999999999895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.126666666666594</c:v>
+                  <c:v>36.796666666666596</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.683333333333195</c:v>
+                  <c:v>36.353333333333197</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.239999999999888</c:v>
+                  <c:v>35.90999999999989</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.574999999999896</c:v>
+                  <c:v>35.244999999999898</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.90999999999989</c:v>
+                  <c:v>34.579999999999892</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>34.247499999999896</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.244999999999898</c:v>
+                  <c:v>33.9149999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.912499999999895</c:v>
+                  <c:v>33.582499999999897</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.579999999999892</c:v>
+                  <c:v>33.249999999999893</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.914999999999893</c:v>
+                  <c:v>32.584999999999894</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>33.249999999999893</c:v>
+                  <c:v>31.919999999999895</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32.806666666666594</c:v>
+                  <c:v>31.476666666666596</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.363333333333294</c:v>
+                  <c:v>31.033333333333296</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>31.919999999999895</c:v>
+                  <c:v>30.589999999999897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31.254999999999896</c:v>
+                  <c:v>29.924999999999898</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.589999999999897</c:v>
+                  <c:v>29.259999999999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.14666666666659</c:v>
+                  <c:v>28.816666666666592</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.703333333333291</c:v>
+                  <c:v>28.373333333333292</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.259999999999891</c:v>
+                  <c:v>27.929999999999893</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28.816666666666592</c:v>
+                  <c:v>27.486666666666594</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28.373333333333292</c:v>
+                  <c:v>27.043333333333294</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27.929999999999893</c:v>
+                  <c:v>26.599999999999895</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.59749999999989</c:v>
+                  <c:v>26.267499999999892</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27.264999999999894</c:v>
+                  <c:v>25.934999999999896</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.932499999999891</c:v>
+                  <c:v>25.602499999999893</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26.599999999999895</c:v>
+                  <c:v>25.269999999999897</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>25.934999999999896</c:v>
+                  <c:v>24.604999999999897</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25.269999999999897</c:v>
+                  <c:v>23.939999999999898</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>24.937499999999893</c:v>
+                  <c:v>23.607499999999895</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24.60499999999989</c:v>
+                  <c:v>23.274999999999892</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.272499999999894</c:v>
+                  <c:v>22.942499999999896</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>23.939999999999891</c:v>
+                  <c:v>22.609999999999893</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>23.496666666666592</c:v>
+                  <c:v>22.166666666666593</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>23.053333333333292</c:v>
+                  <c:v>21.723333333333294</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22.609999999999893</c:v>
+                  <c:v>21.279999999999895</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>22.166666666666593</c:v>
+                  <c:v>20.836666666666595</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>21.723333333333294</c:v>
+                  <c:v>20.393333333333295</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21.279999999999895</c:v>
+                  <c:v>19.949999999999896</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>20.836666666666595</c:v>
+                  <c:v>19.506666666666597</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20.393333333333295</c:v>
+                  <c:v>19.063333333333297</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>19.949999999999896</c:v>
+                  <c:v>18.619999999999898</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19.683999999999891</c:v>
+                  <c:v>18.353999999999893</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>19.417999999999893</c:v>
+                  <c:v>18.087999999999894</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19.151999999999894</c:v>
+                  <c:v>17.821999999999896</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18.885999999999896</c:v>
+                  <c:v>17.555999999999898</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>18.619999999999891</c:v>
+                  <c:v>17.289999999999893</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>18.176666666666591</c:v>
+                  <c:v>16.957499999999893</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>17.733333333333292</c:v>
+                  <c:v>16.624999999999893</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>17.289999999999893</c:v>
+                  <c:v>16.292499999999894</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>15.959</c:v>
+                  <c:v>15.959999999999894</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>15.627499999999891</c:v>
@@ -1269,187 +1269,187 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>43.889999999999894</c:v>
+                  <c:v>42.559999999999896</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.446666666666594</c:v>
+                  <c:v>42.116666666666596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.003333333333195</c:v>
+                  <c:v>41.673333333333197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.559999999999896</c:v>
+                  <c:v>41.229999999999897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.894999999999889</c:v>
+                  <c:v>40.564999999999891</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.229999999999897</c:v>
+                  <c:v>39.899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.786666666666598</c:v>
+                  <c:v>39.456666666666599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.343333333333199</c:v>
+                  <c:v>39.0133333333332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.899999999999892</c:v>
+                  <c:v>38.569999999999894</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.234999999999893</c:v>
+                  <c:v>37.904999999999895</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.569999999999894</c:v>
+                  <c:v>37.239999999999895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.126666666666594</c:v>
+                  <c:v>36.796666666666596</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.683333333333195</c:v>
+                  <c:v>36.353333333333197</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.239999999999888</c:v>
+                  <c:v>35.90999999999989</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.574999999999896</c:v>
+                  <c:v>35.244999999999898</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.90999999999989</c:v>
+                  <c:v>34.579999999999892</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>34.247499999999896</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.244999999999898</c:v>
+                  <c:v>33.9149999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.912499999999895</c:v>
+                  <c:v>33.582499999999897</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.579999999999892</c:v>
+                  <c:v>33.249999999999893</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.914999999999893</c:v>
+                  <c:v>32.584999999999894</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>33.249999999999893</c:v>
+                  <c:v>31.919999999999895</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32.806666666666594</c:v>
+                  <c:v>31.476666666666596</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.363333333333294</c:v>
+                  <c:v>31.033333333333296</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>31.919999999999895</c:v>
+                  <c:v>30.589999999999897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31.254999999999896</c:v>
+                  <c:v>29.924999999999898</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.589999999999897</c:v>
+                  <c:v>29.259999999999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.14666666666659</c:v>
+                  <c:v>28.816666666666592</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.703333333333291</c:v>
+                  <c:v>28.373333333333292</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.259999999999891</c:v>
+                  <c:v>27.929999999999893</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28.816666666666592</c:v>
+                  <c:v>27.486666666666594</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28.373333333333292</c:v>
+                  <c:v>27.043333333333294</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27.929999999999893</c:v>
+                  <c:v>26.599999999999895</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.59749999999989</c:v>
+                  <c:v>26.267499999999892</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27.264999999999894</c:v>
+                  <c:v>25.934999999999896</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.932499999999891</c:v>
+                  <c:v>25.602499999999893</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26.599999999999895</c:v>
+                  <c:v>25.269999999999897</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>25.934999999999896</c:v>
+                  <c:v>24.604999999999897</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25.269999999999897</c:v>
+                  <c:v>23.939999999999898</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>24.937499999999893</c:v>
+                  <c:v>23.607499999999895</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24.60499999999989</c:v>
+                  <c:v>23.274999999999892</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.272499999999894</c:v>
+                  <c:v>22.942499999999896</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>23.939999999999891</c:v>
+                  <c:v>22.609999999999893</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>23.496666666666592</c:v>
+                  <c:v>22.166666666666593</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>23.053333333333292</c:v>
+                  <c:v>21.723333333333294</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22.609999999999893</c:v>
+                  <c:v>21.279999999999895</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>22.166666666666593</c:v>
+                  <c:v>20.836666666666595</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>21.723333333333294</c:v>
+                  <c:v>20.393333333333295</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21.279999999999895</c:v>
+                  <c:v>19.949999999999896</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>20.836666666666595</c:v>
+                  <c:v>19.506666666666597</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20.393333333333295</c:v>
+                  <c:v>19.063333333333297</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>19.949999999999896</c:v>
+                  <c:v>18.619999999999898</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19.683999999999891</c:v>
+                  <c:v>18.353999999999893</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>19.417999999999893</c:v>
+                  <c:v>18.087999999999894</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19.151999999999894</c:v>
+                  <c:v>17.821999999999896</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18.885999999999896</c:v>
+                  <c:v>17.555999999999898</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>18.619999999999891</c:v>
+                  <c:v>17.289999999999893</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>18.176666666666591</c:v>
+                  <c:v>16.957499999999893</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>17.733333333333292</c:v>
+                  <c:v>16.624999999999893</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>17.289999999999893</c:v>
+                  <c:v>16.292499999999894</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>15.959</c:v>
+                  <c:v>15.959999999999894</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>15.627499999999891</c:v>
@@ -2076,11 +2076,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="950356552"/>
-        <c:axId val="950361648"/>
+        <c:axId val="987191424"/>
+        <c:axId val="987189856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="950356552"/>
+        <c:axId val="987191424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
@@ -2123,7 +2123,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2190,12 +2189,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="950361648"/>
+        <c:crossAx val="987189856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="950361648"/>
+        <c:axId val="987189856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2315,7 +2314,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="950356552"/>
+        <c:crossAx val="987191424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2375,7 +2374,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2509,187 +2507,187 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>43.889999999999894</c:v>
+                  <c:v>42.559999999999896</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.446666666666594</c:v>
+                  <c:v>42.116666666666596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.003333333333195</c:v>
+                  <c:v>41.673333333333197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.559999999999896</c:v>
+                  <c:v>41.229999999999897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.894999999999889</c:v>
+                  <c:v>40.564999999999891</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.229999999999897</c:v>
+                  <c:v>39.899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.786666666666598</c:v>
+                  <c:v>39.456666666666599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.343333333333199</c:v>
+                  <c:v>39.0133333333332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.899999999999892</c:v>
+                  <c:v>38.569999999999894</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.234999999999893</c:v>
+                  <c:v>37.904999999999895</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.569999999999894</c:v>
+                  <c:v>37.239999999999895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.126666666666594</c:v>
+                  <c:v>36.796666666666596</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.683333333333195</c:v>
+                  <c:v>36.353333333333197</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.239999999999888</c:v>
+                  <c:v>35.90999999999989</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.574999999999896</c:v>
+                  <c:v>35.244999999999898</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.90999999999989</c:v>
+                  <c:v>34.579999999999892</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>34.247499999999896</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.244999999999898</c:v>
+                  <c:v>33.9149999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.912499999999895</c:v>
+                  <c:v>33.582499999999897</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.579999999999892</c:v>
+                  <c:v>33.249999999999893</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.914999999999893</c:v>
+                  <c:v>32.584999999999894</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>33.249999999999893</c:v>
+                  <c:v>31.919999999999895</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32.806666666666594</c:v>
+                  <c:v>31.476666666666596</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.363333333333294</c:v>
+                  <c:v>31.033333333333296</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>31.919999999999895</c:v>
+                  <c:v>30.589999999999897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31.254999999999896</c:v>
+                  <c:v>29.924999999999898</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.589999999999897</c:v>
+                  <c:v>29.259999999999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.14666666666659</c:v>
+                  <c:v>28.816666666666592</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.703333333333291</c:v>
+                  <c:v>28.373333333333292</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.259999999999891</c:v>
+                  <c:v>27.929999999999893</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28.816666666666592</c:v>
+                  <c:v>27.486666666666594</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28.373333333333292</c:v>
+                  <c:v>27.043333333333294</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27.929999999999893</c:v>
+                  <c:v>26.599999999999895</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.59749999999989</c:v>
+                  <c:v>26.267499999999892</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27.264999999999894</c:v>
+                  <c:v>25.934999999999896</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.932499999999891</c:v>
+                  <c:v>25.602499999999893</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26.599999999999895</c:v>
+                  <c:v>25.269999999999897</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>25.934999999999896</c:v>
+                  <c:v>24.604999999999897</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25.269999999999897</c:v>
+                  <c:v>23.939999999999898</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>24.937499999999893</c:v>
+                  <c:v>23.607499999999895</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24.60499999999989</c:v>
+                  <c:v>23.274999999999892</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.272499999999894</c:v>
+                  <c:v>22.942499999999896</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>23.939999999999891</c:v>
+                  <c:v>22.609999999999893</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>23.496666666666592</c:v>
+                  <c:v>22.166666666666593</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>23.053333333333292</c:v>
+                  <c:v>21.723333333333294</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22.609999999999893</c:v>
+                  <c:v>21.279999999999895</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>22.166666666666593</c:v>
+                  <c:v>20.836666666666595</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>21.723333333333294</c:v>
+                  <c:v>20.393333333333295</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21.279999999999895</c:v>
+                  <c:v>19.949999999999896</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>20.836666666666595</c:v>
+                  <c:v>19.506666666666597</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20.393333333333295</c:v>
+                  <c:v>19.063333333333297</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>19.949999999999896</c:v>
+                  <c:v>18.619999999999898</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19.683999999999891</c:v>
+                  <c:v>18.353999999999893</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>19.417999999999893</c:v>
+                  <c:v>18.087999999999894</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19.151999999999894</c:v>
+                  <c:v>17.821999999999896</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18.885999999999896</c:v>
+                  <c:v>17.555999999999898</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>18.619999999999891</c:v>
+                  <c:v>17.289999999999893</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>18.176666666666591</c:v>
+                  <c:v>16.957499999999893</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>17.733333333333292</c:v>
+                  <c:v>16.624999999999893</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>17.289999999999893</c:v>
+                  <c:v>16.292499999999894</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>15.959</c:v>
+                  <c:v>15.959999999999894</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>15.627499999999891</c:v>
@@ -3316,12 +3314,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="950351456"/>
-        <c:axId val="950351848"/>
+        <c:axId val="987194560"/>
+        <c:axId val="987198480"/>
         <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="950351456"/>
+        <c:axId val="987194560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3429,12 +3427,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="950351848"/>
+        <c:crossAx val="987198480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="950351848"/>
+        <c:axId val="987198480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3546,7 +3544,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="950351456"/>
+        <c:crossAx val="987194560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3662,187 +3660,187 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>43.889999999999894</c:v>
+                  <c:v>42.559999999999896</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.446666666666594</c:v>
+                  <c:v>42.116666666666596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.003333333333195</c:v>
+                  <c:v>41.673333333333197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.559999999999896</c:v>
+                  <c:v>41.229999999999897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.894999999999889</c:v>
+                  <c:v>40.564999999999891</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.229999999999897</c:v>
+                  <c:v>39.899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.786666666666598</c:v>
+                  <c:v>39.456666666666599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.343333333333199</c:v>
+                  <c:v>39.0133333333332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.899999999999892</c:v>
+                  <c:v>38.569999999999894</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.234999999999893</c:v>
+                  <c:v>37.904999999999895</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.569999999999894</c:v>
+                  <c:v>37.239999999999895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.126666666666594</c:v>
+                  <c:v>36.796666666666596</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.683333333333195</c:v>
+                  <c:v>36.353333333333197</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.239999999999888</c:v>
+                  <c:v>35.90999999999989</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.574999999999896</c:v>
+                  <c:v>35.244999999999898</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.90999999999989</c:v>
+                  <c:v>34.579999999999892</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>34.247499999999896</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.244999999999898</c:v>
+                  <c:v>33.9149999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.912499999999895</c:v>
+                  <c:v>33.582499999999897</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.579999999999892</c:v>
+                  <c:v>33.249999999999893</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.914999999999893</c:v>
+                  <c:v>32.584999999999894</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>33.249999999999893</c:v>
+                  <c:v>31.919999999999895</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32.806666666666594</c:v>
+                  <c:v>31.476666666666596</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.363333333333294</c:v>
+                  <c:v>31.033333333333296</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>31.919999999999895</c:v>
+                  <c:v>30.589999999999897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31.254999999999896</c:v>
+                  <c:v>29.924999999999898</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.589999999999897</c:v>
+                  <c:v>29.259999999999899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.14666666666659</c:v>
+                  <c:v>28.816666666666592</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.703333333333291</c:v>
+                  <c:v>28.373333333333292</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.259999999999891</c:v>
+                  <c:v>27.929999999999893</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28.816666666666592</c:v>
+                  <c:v>27.486666666666594</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28.373333333333292</c:v>
+                  <c:v>27.043333333333294</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27.929999999999893</c:v>
+                  <c:v>26.599999999999895</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.59749999999989</c:v>
+                  <c:v>26.267499999999892</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27.264999999999894</c:v>
+                  <c:v>25.934999999999896</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.932499999999891</c:v>
+                  <c:v>25.602499999999893</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>26.599999999999895</c:v>
+                  <c:v>25.269999999999897</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>25.934999999999896</c:v>
+                  <c:v>24.604999999999897</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25.269999999999897</c:v>
+                  <c:v>23.939999999999898</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>24.937499999999893</c:v>
+                  <c:v>23.607499999999895</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24.60499999999989</c:v>
+                  <c:v>23.274999999999892</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.272499999999894</c:v>
+                  <c:v>22.942499999999896</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>23.939999999999891</c:v>
+                  <c:v>22.609999999999893</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>23.496666666666592</c:v>
+                  <c:v>22.166666666666593</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>23.053333333333292</c:v>
+                  <c:v>21.723333333333294</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22.609999999999893</c:v>
+                  <c:v>21.279999999999895</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>22.166666666666593</c:v>
+                  <c:v>20.836666666666595</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>21.723333333333294</c:v>
+                  <c:v>20.393333333333295</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21.279999999999895</c:v>
+                  <c:v>19.949999999999896</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>20.836666666666595</c:v>
+                  <c:v>19.506666666666597</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20.393333333333295</c:v>
+                  <c:v>19.063333333333297</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>19.949999999999896</c:v>
+                  <c:v>18.619999999999898</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>19.683999999999891</c:v>
+                  <c:v>18.353999999999893</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>19.417999999999893</c:v>
+                  <c:v>18.087999999999894</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19.151999999999894</c:v>
+                  <c:v>17.821999999999896</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18.885999999999896</c:v>
+                  <c:v>17.555999999999898</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>18.619999999999891</c:v>
+                  <c:v>17.289999999999893</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>18.176666666666591</c:v>
+                  <c:v>16.957499999999893</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>17.733333333333292</c:v>
+                  <c:v>16.624999999999893</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>17.289999999999893</c:v>
+                  <c:v>16.292499999999894</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>15.959</c:v>
+                  <c:v>15.959999999999894</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>15.627499999999891</c:v>
@@ -4469,12 +4467,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="950370272"/>
-        <c:axId val="950365568"/>
+        <c:axId val="987199264"/>
+        <c:axId val="987198872"/>
         <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="950370272"/>
+        <c:axId val="987199264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4582,12 +4580,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="950365568"/>
+        <c:crossAx val="987198872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="950365568"/>
+        <c:axId val="987198872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4699,7 +4697,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="950370272"/>
+        <c:crossAx val="987199264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4848,67 +4846,67 @@
                   <c:v>14.629999999999896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.289999999999893</c:v>
+                  <c:v>16.292499999999894</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.885999999999896</c:v>
+                  <c:v>17.555999999999898</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>18.619999999999898</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>19.949999999999896</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>21.279999999999895</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>22.609999999999893</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>23.939999999999891</c:v>
-                </c:pt>
                 <c:pt idx="18">
+                  <c:v>23.939999999999898</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>25.269999999999897</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>26.599999999999895</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>27.929999999999893</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>29.259999999999891</c:v>
-                </c:pt>
                 <c:pt idx="22">
+                  <c:v>29.259999999999899</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>30.589999999999897</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>31.919999999999895</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>33.249999999999893</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>34.579999999999892</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>34.247499999999896</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>37.239999999999888</c:v>
+                  <c:v>35.90999999999989</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>37.239999999999895</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>38.569999999999894</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>39.899999999999892</c:v>
-                </c:pt>
                 <c:pt idx="30">
+                  <c:v>39.899999999999899</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>41.229999999999897</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>42.559999999999896</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43.889999999999894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5096,64 +5094,64 @@
                   <c:v>15.959</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.885999999999896</c:v>
+                  <c:v>17.555999999999898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.683999999999891</c:v>
+                  <c:v>18.353999999999893</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.836666666666595</c:v>
+                  <c:v>19.506666666666597</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>21.279999999999895</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>22.609999999999893</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>23.939999999999891</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.937499999999893</c:v>
+                  <c:v>23.607499999999895</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26.599999999999895</c:v>
+                  <c:v>25.269999999999897</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27.59749999999989</c:v>
+                  <c:v>26.267499999999892</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>29.259999999999891</c:v>
+                  <c:v>27.929999999999893</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>30.14666666666659</c:v>
+                  <c:v>28.816666666666592</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>30.589999999999897</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>31.919999999999895</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>33.249999999999893</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>34.912499999999895</c:v>
+                  <c:v>33.582499999999897</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>35.577499999999894</c:v>
+                  <c:v>34.247499999999896</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>37.683333333333195</c:v>
+                  <c:v>36.353333333333197</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>37.239999999999895</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>38.569999999999894</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>39.899999999999892</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>41.229999999999897</c:v>
+                  <c:v>39.899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43.003333333333195</c:v>
+                  <c:v>41.673333333333197</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43.889999999999894</c:v>
+                  <c:v>42.559999999999896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5276,11 +5274,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="950368704"/>
-        <c:axId val="950373408"/>
+        <c:axId val="987195344"/>
+        <c:axId val="987199656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="950368704"/>
+        <c:axId val="987195344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5322,6 +5320,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5388,12 +5387,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="950373408"/>
+        <c:crossAx val="987199656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="950373408"/>
+        <c:axId val="987199656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5439,6 +5438,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5505,7 +5505,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="950368704"/>
+        <c:crossAx val="987195344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8213,7 +8213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
@@ -8229,8 +8229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C131"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8240,7 +8240,7 @@
         <v>33</v>
       </c>
       <c r="B1">
-        <v>43.889999999999894</v>
+        <v>42.559999999999896</v>
       </c>
       <c r="C1" s="1">
         <v>7196</v>
@@ -8266,7 +8266,7 @@
       </c>
       <c r="J1">
         <f>MOD(B1,1.33)</f>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -8274,7 +8274,7 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>43.446666666666594</v>
+        <v>42.116666666666596</v>
       </c>
       <c r="C2" s="1">
         <v>8674</v>
@@ -8300,7 +8300,7 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J65" si="3">MOD(B2,1.33)</f>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -8308,7 +8308,7 @@
         <v>35</v>
       </c>
       <c r="B3">
-        <v>43.003333333333195</v>
+        <v>41.673333333333197</v>
       </c>
       <c r="C3" s="1">
         <v>8813</v>
@@ -8334,7 +8334,7 @@
       </c>
       <c r="J3">
         <f t="shared" si="3"/>
-        <v>0.44333333333319302</v>
+        <v>0.4433333333331948</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -8342,7 +8342,7 @@
         <v>36</v>
       </c>
       <c r="B4">
-        <v>42.559999999999896</v>
+        <v>41.229999999999897</v>
       </c>
       <c r="C4" s="1">
         <v>8964</v>
@@ -8368,7 +8368,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -8376,7 +8376,7 @@
         <v>37</v>
       </c>
       <c r="B5">
-        <v>41.894999999999889</v>
+        <v>40.564999999999891</v>
       </c>
       <c r="C5" s="1">
         <v>7778</v>
@@ -8402,7 +8402,7 @@
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
-        <v>0.66499999999988724</v>
+        <v>0.66499999999988901</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -8410,7 +8410,7 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <v>41.229999999999897</v>
+        <v>39.899999999999899</v>
       </c>
       <c r="C6" s="1">
         <v>8410</v>
@@ -8429,7 +8429,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
+        <v>1.329999999999897</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -8437,7 +8437,7 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <v>40.786666666666598</v>
+        <v>39.456666666666599</v>
       </c>
       <c r="C7" s="1">
         <v>8303</v>
@@ -8456,7 +8456,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>0.88666666666659566</v>
+        <v>0.88666666666659744</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -8464,7 +8464,7 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>40.343333333333199</v>
+        <v>39.0133333333332</v>
       </c>
       <c r="C8" s="1">
         <v>8864</v>
@@ -8483,7 +8483,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>0.44333333333319658</v>
+        <v>0.44333333333319835</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -8491,7 +8491,7 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>39.899999999999892</v>
+        <v>38.569999999999894</v>
       </c>
       <c r="C9" s="1">
         <v>9808</v>
@@ -8510,7 +8510,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -8518,7 +8518,7 @@
         <v>42</v>
       </c>
       <c r="B10">
-        <v>39.234999999999893</v>
+        <v>37.904999999999895</v>
       </c>
       <c r="C10" s="1">
         <v>9295</v>
@@ -8537,7 +8537,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>0.66499999999989079</v>
+        <v>0.66499999999989257</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -8545,7 +8545,7 @@
         <v>43</v>
       </c>
       <c r="B11">
-        <v>38.569999999999894</v>
+        <v>37.239999999999895</v>
       </c>
       <c r="C11" s="1">
         <v>8113</v>
@@ -8564,7 +8564,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -8572,7 +8572,7 @@
         <v>44</v>
       </c>
       <c r="B12">
-        <v>38.126666666666594</v>
+        <v>36.796666666666596</v>
       </c>
       <c r="C12" s="1">
         <v>7693</v>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -8599,7 +8599,7 @@
         <v>45</v>
       </c>
       <c r="B13">
-        <v>37.683333333333195</v>
+        <v>36.353333333333197</v>
       </c>
       <c r="C13" s="1">
         <v>8651</v>
@@ -8618,7 +8618,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>0.44333333333319302</v>
+        <v>0.4433333333331948</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -8626,7 +8626,7 @@
         <v>46</v>
       </c>
       <c r="B14">
-        <v>37.239999999999888</v>
+        <v>35.90999999999989</v>
       </c>
       <c r="C14" s="1">
         <v>9428</v>
@@ -8645,7 +8645,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>1.3299999999998864</v>
+        <v>1.3299999999998882</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -8653,7 +8653,7 @@
         <v>47</v>
       </c>
       <c r="B15">
-        <v>36.574999999999896</v>
+        <v>35.244999999999898</v>
       </c>
       <c r="C15" s="1">
         <v>9353</v>
@@ -8672,7 +8672,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>0.66499999999989434</v>
+        <v>0.66499999999989612</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -8680,7 +8680,7 @@
         <v>48</v>
       </c>
       <c r="B16">
-        <v>35.90999999999989</v>
+        <v>34.579999999999892</v>
       </c>
       <c r="C16" s="1">
         <v>8296</v>
@@ -8699,15 +8699,15 @@
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
-        <v>1.3299999999998882</v>
+        <v>1.3299999999998899</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22">
         <v>49</v>
       </c>
-      <c r="B17" s="22">
-        <v>35.577499999999894</v>
+      <c r="B17">
+        <v>34.247499999999896</v>
       </c>
       <c r="C17" s="1">
         <v>7664</v>
@@ -8726,7 +8726,7 @@
       </c>
       <c r="J17" s="22">
         <f t="shared" si="3"/>
-        <v>0.99749999999989214</v>
+        <v>0.99749999999989392</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -8734,7 +8734,7 @@
         <v>50</v>
       </c>
       <c r="B18">
-        <v>35.244999999999898</v>
+        <v>33.9149999999999</v>
       </c>
       <c r="C18" s="1">
         <v>8116</v>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
-        <v>0.66499999999989612</v>
+        <v>0.6649999999998979</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -8761,7 +8761,7 @@
         <v>51</v>
       </c>
       <c r="B19">
-        <v>34.912499999999895</v>
+        <v>33.582499999999897</v>
       </c>
       <c r="C19" s="1">
         <v>8443</v>
@@ -8780,7 +8780,7 @@
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
-        <v>0.33249999999989299</v>
+        <v>0.33249999999989477</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -8788,7 +8788,7 @@
         <v>52</v>
       </c>
       <c r="B20">
-        <v>34.579999999999892</v>
+        <v>33.249999999999893</v>
       </c>
       <c r="C20" s="1">
         <v>9727</v>
@@ -8807,7 +8807,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
@@ -8815,7 +8815,7 @@
         <v>53</v>
       </c>
       <c r="B21">
-        <v>33.914999999999893</v>
+        <v>32.584999999999894</v>
       </c>
       <c r="C21" s="1">
         <v>8741</v>
@@ -8834,7 +8834,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
-        <v>0.66499999999989079</v>
+        <v>0.66499999999989257</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
@@ -8842,7 +8842,7 @@
         <v>54</v>
       </c>
       <c r="B22">
-        <v>33.249999999999893</v>
+        <v>31.919999999999895</v>
       </c>
       <c r="C22" s="1">
         <v>7394</v>
@@ -8861,7 +8861,7 @@
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
@@ -8869,7 +8869,7 @@
         <v>55</v>
       </c>
       <c r="B23">
-        <v>32.806666666666594</v>
+        <v>31.476666666666596</v>
       </c>
       <c r="C23" s="1">
         <v>8082</v>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
@@ -8896,7 +8896,7 @@
         <v>56</v>
       </c>
       <c r="B24">
-        <v>32.363333333333294</v>
+        <v>31.033333333333296</v>
       </c>
       <c r="C24" s="1">
         <v>8140</v>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
-        <v>0.4433333333332925</v>
+        <v>0.44333333333329428</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
@@ -8923,7 +8923,7 @@
         <v>57</v>
       </c>
       <c r="B25">
-        <v>31.919999999999895</v>
+        <v>30.589999999999897</v>
       </c>
       <c r="C25" s="1">
         <v>9639</v>
@@ -8942,7 +8942,7 @@
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -8950,7 +8950,7 @@
         <v>58</v>
       </c>
       <c r="B26">
-        <v>31.254999999999896</v>
+        <v>29.924999999999898</v>
       </c>
       <c r="C26" s="1">
         <v>8864</v>
@@ -8969,7 +8969,7 @@
       </c>
       <c r="J26">
         <f t="shared" si="3"/>
-        <v>0.66499999999989434</v>
+        <v>0.66499999999989612</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
@@ -8977,7 +8977,7 @@
         <v>59</v>
       </c>
       <c r="B27">
-        <v>30.589999999999897</v>
+        <v>29.259999999999899</v>
       </c>
       <c r="C27" s="1">
         <v>7790</v>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
+        <v>1.329999999999897</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
@@ -9004,7 +9004,7 @@
         <v>60</v>
       </c>
       <c r="B28">
-        <v>30.14666666666659</v>
+        <v>28.816666666666592</v>
       </c>
       <c r="C28" s="1">
         <v>7325</v>
@@ -9023,7 +9023,7 @@
       </c>
       <c r="J28">
         <f t="shared" si="3"/>
-        <v>0.88666666666658855</v>
+        <v>0.88666666666659033</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
@@ -9031,7 +9031,7 @@
         <v>61</v>
       </c>
       <c r="B29">
-        <v>29.703333333333291</v>
+        <v>28.373333333333292</v>
       </c>
       <c r="C29" s="1">
         <v>7340</v>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="J29">
         <f t="shared" si="3"/>
-        <v>0.44333333333328895</v>
+        <v>0.44333333333329072</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
@@ -9058,7 +9058,7 @@
         <v>62</v>
       </c>
       <c r="B30">
-        <v>29.259999999999891</v>
+        <v>27.929999999999893</v>
       </c>
       <c r="C30" s="1">
         <v>9155</v>
@@ -9077,7 +9077,7 @@
       </c>
       <c r="J30">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
@@ -9085,7 +9085,7 @@
         <v>63</v>
       </c>
       <c r="B31">
-        <v>28.816666666666592</v>
+        <v>27.486666666666594</v>
       </c>
       <c r="C31" s="1">
         <v>9258</v>
@@ -9104,7 +9104,7 @@
       </c>
       <c r="J31">
         <f t="shared" si="3"/>
-        <v>0.88666666666659033</v>
+        <v>0.88666666666659211</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
@@ -9112,7 +9112,7 @@
         <v>64</v>
       </c>
       <c r="B32">
-        <v>28.373333333333292</v>
+        <v>27.043333333333294</v>
       </c>
       <c r="C32" s="1">
         <v>7996</v>
@@ -9131,7 +9131,7 @@
       </c>
       <c r="J32">
         <f t="shared" si="3"/>
-        <v>0.44333333333329072</v>
+        <v>0.4433333333332925</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
@@ -9139,7 +9139,7 @@
         <v>65</v>
       </c>
       <c r="B33">
-        <v>27.929999999999893</v>
+        <v>26.599999999999895</v>
       </c>
       <c r="C33" s="1">
         <v>8347</v>
@@ -9158,7 +9158,7 @@
       </c>
       <c r="J33">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
@@ -9166,7 +9166,7 @@
         <v>66</v>
       </c>
       <c r="B34">
-        <v>27.59749999999989</v>
+        <v>26.267499999999892</v>
       </c>
       <c r="C34" s="1">
         <v>7879</v>
@@ -9185,7 +9185,7 @@
       </c>
       <c r="J34">
         <f t="shared" si="3"/>
-        <v>0.99749999999988859</v>
+        <v>0.99749999999989036</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
@@ -9193,7 +9193,7 @@
         <v>67</v>
       </c>
       <c r="B35">
-        <v>27.264999999999894</v>
+        <v>25.934999999999896</v>
       </c>
       <c r="C35" s="1">
         <v>8359</v>
@@ -9212,7 +9212,7 @@
       </c>
       <c r="J35">
         <f t="shared" si="3"/>
-        <v>0.66499999999989257</v>
+        <v>0.66499999999989434</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
@@ -9220,7 +9220,7 @@
         <v>68</v>
       </c>
       <c r="B36">
-        <v>26.932499999999891</v>
+        <v>25.602499999999893</v>
       </c>
       <c r="C36" s="1">
         <v>9531</v>
@@ -9239,7 +9239,7 @@
       </c>
       <c r="J36">
         <f t="shared" si="3"/>
-        <v>0.33249999999988944</v>
+        <v>0.33249999999989122</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -9247,7 +9247,7 @@
         <v>69</v>
       </c>
       <c r="B37">
-        <v>26.599999999999895</v>
+        <v>25.269999999999897</v>
       </c>
       <c r="C37" s="1">
         <v>9800</v>
@@ -9266,7 +9266,7 @@
       </c>
       <c r="J37">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
@@ -9274,7 +9274,7 @@
         <v>70</v>
       </c>
       <c r="B38">
-        <v>25.934999999999896</v>
+        <v>24.604999999999897</v>
       </c>
       <c r="C38" s="1">
         <v>9165</v>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="J38">
         <f t="shared" si="3"/>
-        <v>0.66499999999989434</v>
+        <v>0.66499999999989612</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
@@ -9301,7 +9301,7 @@
         <v>71</v>
       </c>
       <c r="B39">
-        <v>25.269999999999897</v>
+        <v>23.939999999999898</v>
       </c>
       <c r="C39" s="1">
         <v>8296</v>
@@ -9320,7 +9320,7 @@
       </c>
       <c r="J39">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
+        <v>1.329999999999897</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
@@ -9328,7 +9328,7 @@
         <v>72</v>
       </c>
       <c r="B40">
-        <v>24.937499999999893</v>
+        <v>23.607499999999895</v>
       </c>
       <c r="C40" s="1">
         <v>7212</v>
@@ -9347,7 +9347,7 @@
       </c>
       <c r="J40">
         <f t="shared" si="3"/>
-        <v>0.99749999999989214</v>
+        <v>0.99749999999989392</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
@@ -9355,7 +9355,7 @@
         <v>73</v>
       </c>
       <c r="B41">
-        <v>24.60499999999989</v>
+        <v>23.274999999999892</v>
       </c>
       <c r="C41" s="1">
         <v>8170</v>
@@ -9374,7 +9374,7 @@
       </c>
       <c r="J41">
         <f t="shared" si="3"/>
-        <v>0.66499999999988901</v>
+        <v>0.66499999999989079</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
@@ -9382,7 +9382,7 @@
         <v>74</v>
       </c>
       <c r="B42">
-        <v>24.272499999999894</v>
+        <v>22.942499999999896</v>
       </c>
       <c r="C42" s="1">
         <v>9078</v>
@@ -9401,7 +9401,7 @@
       </c>
       <c r="J42">
         <f t="shared" si="3"/>
-        <v>0.33249999999989299</v>
+        <v>0.33249999999989477</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
@@ -9409,7 +9409,7 @@
         <v>75</v>
       </c>
       <c r="B43">
-        <v>23.939999999999891</v>
+        <v>22.609999999999893</v>
       </c>
       <c r="C43" s="1">
         <v>9214</v>
@@ -9428,7 +9428,7 @@
       </c>
       <c r="J43">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -9436,7 +9436,7 @@
         <v>76</v>
       </c>
       <c r="B44">
-        <v>23.496666666666592</v>
+        <v>22.166666666666593</v>
       </c>
       <c r="C44" s="1">
         <v>9245</v>
@@ -9455,7 +9455,7 @@
       </c>
       <c r="J44">
         <f t="shared" si="3"/>
-        <v>0.88666666666659033</v>
+        <v>0.88666666666659211</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
@@ -9463,7 +9463,7 @@
         <v>77</v>
       </c>
       <c r="B45">
-        <v>23.053333333333292</v>
+        <v>21.723333333333294</v>
       </c>
       <c r="C45" s="1">
         <v>7700</v>
@@ -9482,7 +9482,7 @@
       </c>
       <c r="J45">
         <f t="shared" si="3"/>
-        <v>0.44333333333329072</v>
+        <v>0.4433333333332925</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -9490,7 +9490,7 @@
         <v>78</v>
       </c>
       <c r="B46">
-        <v>22.609999999999893</v>
+        <v>21.279999999999895</v>
       </c>
       <c r="C46" s="1">
         <v>7484</v>
@@ -9509,7 +9509,7 @@
       </c>
       <c r="J46">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
@@ -9517,7 +9517,7 @@
         <v>79</v>
       </c>
       <c r="B47">
-        <v>22.166666666666593</v>
+        <v>20.836666666666595</v>
       </c>
       <c r="C47" s="1">
         <v>7682</v>
@@ -9536,7 +9536,7 @@
       </c>
       <c r="J47">
         <f t="shared" si="3"/>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -9544,7 +9544,7 @@
         <v>80</v>
       </c>
       <c r="B48">
-        <v>21.723333333333294</v>
+        <v>20.393333333333295</v>
       </c>
       <c r="C48" s="1">
         <v>8045</v>
@@ -9563,7 +9563,7 @@
       </c>
       <c r="J48">
         <f t="shared" si="3"/>
-        <v>0.4433333333332925</v>
+        <v>0.44333333333329428</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -9571,7 +9571,7 @@
         <v>81</v>
       </c>
       <c r="B49">
-        <v>21.279999999999895</v>
+        <v>19.949999999999896</v>
       </c>
       <c r="C49" s="1">
         <v>9252</v>
@@ -9590,7 +9590,7 @@
       </c>
       <c r="J49">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -9598,7 +9598,7 @@
         <v>82</v>
       </c>
       <c r="B50">
-        <v>20.836666666666595</v>
+        <v>19.506666666666597</v>
       </c>
       <c r="C50" s="1">
         <v>9889</v>
@@ -9617,7 +9617,7 @@
       </c>
       <c r="J50">
         <f t="shared" si="3"/>
-        <v>0.88666666666659388</v>
+        <v>0.88666666666659566</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
@@ -9625,7 +9625,7 @@
         <v>83</v>
       </c>
       <c r="B51">
-        <v>20.393333333333295</v>
+        <v>19.063333333333297</v>
       </c>
       <c r="C51" s="1">
         <v>8387</v>
@@ -9644,7 +9644,7 @@
       </c>
       <c r="J51">
         <f t="shared" si="3"/>
-        <v>0.44333333333329428</v>
+        <v>0.44333333333329605</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
@@ -9652,7 +9652,7 @@
         <v>84</v>
       </c>
       <c r="B52">
-        <v>19.949999999999896</v>
+        <v>18.619999999999898</v>
       </c>
       <c r="C52" s="1">
         <v>8094</v>
@@ -9671,15 +9671,15 @@
       </c>
       <c r="J52">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
+        <v>1.329999999999897</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="22">
         <v>85</v>
       </c>
-      <c r="B53" s="22">
-        <v>19.683999999999891</v>
+      <c r="B53">
+        <v>18.353999999999893</v>
       </c>
       <c r="C53" s="1">
         <v>6861</v>
@@ -9698,7 +9698,7 @@
       </c>
       <c r="J53" s="22">
         <f t="shared" si="3"/>
-        <v>1.0639999999998899</v>
+        <v>1.0639999999998917</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
@@ -9706,7 +9706,7 @@
         <v>86</v>
       </c>
       <c r="B54">
-        <v>19.417999999999893</v>
+        <v>18.087999999999894</v>
       </c>
       <c r="C54" s="1">
         <v>7346</v>
@@ -9725,7 +9725,7 @@
       </c>
       <c r="J54">
         <f t="shared" si="3"/>
-        <v>0.79799999999989168</v>
+        <v>0.79799999999989346</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
@@ -9733,7 +9733,7 @@
         <v>87</v>
       </c>
       <c r="B55">
-        <v>19.151999999999894</v>
+        <v>17.821999999999896</v>
       </c>
       <c r="C55" s="1">
         <v>8161</v>
@@ -9752,15 +9752,15 @@
       </c>
       <c r="J55">
         <f t="shared" si="3"/>
-        <v>0.53199999999989345</v>
+        <v>0.53199999999989522</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="22">
         <v>88</v>
       </c>
-      <c r="B56" s="22">
-        <v>18.885999999999896</v>
+      <c r="B56">
+        <v>17.555999999999898</v>
       </c>
       <c r="C56" s="1">
         <v>9380</v>
@@ -9779,7 +9779,7 @@
       </c>
       <c r="J56" s="22">
         <f t="shared" si="3"/>
-        <v>0.26599999999989521</v>
+        <v>0.26599999999989699</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
@@ -9787,7 +9787,7 @@
         <v>89</v>
       </c>
       <c r="B57">
-        <v>18.619999999999891</v>
+        <v>17.289999999999893</v>
       </c>
       <c r="C57" s="1">
         <v>9815</v>
@@ -9806,7 +9806,7 @@
       </c>
       <c r="J57">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
@@ -9814,7 +9814,7 @@
         <v>90</v>
       </c>
       <c r="B58">
-        <v>18.176666666666591</v>
+        <v>16.957499999999893</v>
       </c>
       <c r="C58" s="1">
         <v>9415</v>
@@ -9833,7 +9833,7 @@
       </c>
       <c r="J58">
         <f t="shared" si="3"/>
-        <v>0.88666666666659033</v>
+        <v>0.99749999999989214</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
@@ -9841,7 +9841,7 @@
         <v>91</v>
       </c>
       <c r="B59">
-        <v>17.733333333333292</v>
+        <v>16.624999999999893</v>
       </c>
       <c r="C59" s="1">
         <v>8823</v>
@@ -9860,7 +9860,7 @@
       </c>
       <c r="J59">
         <f t="shared" si="3"/>
-        <v>0.44333333333329072</v>
+        <v>0.66499999999989257</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
@@ -9868,7 +9868,7 @@
         <v>92</v>
       </c>
       <c r="B60">
-        <v>17.289999999999893</v>
+        <v>16.292499999999894</v>
       </c>
       <c r="C60" s="1">
         <v>7196</v>
@@ -9887,7 +9887,7 @@
       </c>
       <c r="J60">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>0.33249999999989299</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
@@ -9895,7 +9895,7 @@
         <v>93</v>
       </c>
       <c r="B61">
-        <v>15.959</v>
+        <v>15.959999999999894</v>
       </c>
       <c r="C61" s="1">
         <v>6982</v>
@@ -9914,7 +9914,7 @@
       </c>
       <c r="J61">
         <f t="shared" si="3"/>
-        <v>1.3289999999999988</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
@@ -10488,7 +10488,7 @@
       <c r="A83" s="22">
         <v>115</v>
       </c>
-      <c r="B83" s="22">
+      <c r="B83">
         <v>9.0883333333332956</v>
       </c>
       <c r="C83" s="1">
@@ -10596,7 +10596,7 @@
       <c r="A87" s="22">
         <v>119</v>
       </c>
-      <c r="B87" s="22">
+      <c r="B87">
         <v>8.2016666666665969</v>
       </c>
       <c r="C87" s="1">
@@ -11271,7 +11271,7 @@
       <c r="A112" s="22">
         <v>144</v>
       </c>
-      <c r="B112" s="22">
+      <c r="B112">
         <v>2.5390909090908949</v>
       </c>
       <c r="C112" s="1">
@@ -11825,8 +11825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D131"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11839,11 +11839,11 @@
         <v>33</v>
       </c>
       <c r="B1">
-        <v>43.889999999999894</v>
+        <v>42.559999999999896</v>
       </c>
       <c r="C1" s="1">
         <f t="shared" ref="C1:C32" si="0">B1+6</f>
-        <v>49.889999999999894</v>
+        <v>48.559999999999896</v>
       </c>
       <c r="D1" s="1">
         <v>9649</v>
@@ -11862,7 +11862,7 @@
       </c>
       <c r="J1">
         <f>MOD(B1,1.33)</f>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -11870,11 +11870,11 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>43.446666666666594</v>
+        <v>42.116666666666596</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" si="0"/>
-        <v>49.446666666666594</v>
+        <v>48.116666666666596</v>
       </c>
       <c r="D2" s="1">
         <v>9639</v>
@@ -11893,19 +11893,19 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J65" si="3">MOD(B2,1.33)</f>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>35</v>
       </c>
-      <c r="B3" s="2">
-        <v>43.003333333333195</v>
+      <c r="B3">
+        <v>41.673333333333197</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" si="0"/>
-        <v>49.003333333333195</v>
+        <v>47.673333333333197</v>
       </c>
       <c r="D3" s="1">
         <v>10261</v>
@@ -11924,7 +11924,7 @@
       </c>
       <c r="J3" s="2">
         <f t="shared" si="3"/>
-        <v>0.44333333333319302</v>
+        <v>0.4433333333331948</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -11932,11 +11932,11 @@
         <v>36</v>
       </c>
       <c r="B4">
-        <v>42.559999999999896</v>
+        <v>41.229999999999897</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>48.559999999999896</v>
+        <v>47.229999999999897</v>
       </c>
       <c r="D4" s="1">
         <v>10638</v>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -11963,11 +11963,11 @@
         <v>37</v>
       </c>
       <c r="B5">
-        <v>41.894999999999889</v>
+        <v>40.564999999999891</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>47.894999999999889</v>
+        <v>46.564999999999891</v>
       </c>
       <c r="D5" s="1">
         <v>10467</v>
@@ -11986,7 +11986,7 @@
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
-        <v>0.66499999999988724</v>
+        <v>0.66499999999988901</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -11994,11 +11994,11 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <v>41.229999999999897</v>
+        <v>39.899999999999899</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>47.229999999999897</v>
+        <v>45.899999999999899</v>
       </c>
       <c r="D6" s="1">
         <v>10188</v>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
+        <v>1.329999999999897</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -12021,11 +12021,11 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <v>40.786666666666598</v>
+        <v>39.456666666666599</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>46.786666666666598</v>
+        <v>45.456666666666599</v>
       </c>
       <c r="D7" s="1">
         <v>9440</v>
@@ -12040,7 +12040,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>0.88666666666659566</v>
+        <v>0.88666666666659744</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -12048,11 +12048,11 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>40.343333333333199</v>
+        <v>39.0133333333332</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>46.343333333333199</v>
+        <v>45.0133333333332</v>
       </c>
       <c r="D8" s="1">
         <v>9698</v>
@@ -12067,7 +12067,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>0.44333333333319658</v>
+        <v>0.44333333333319835</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -12075,11 +12075,11 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>39.899999999999892</v>
+        <v>38.569999999999894</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>45.899999999999892</v>
+        <v>44.569999999999894</v>
       </c>
       <c r="D9" s="1">
         <v>10117</v>
@@ -12094,7 +12094,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -12102,11 +12102,11 @@
         <v>42</v>
       </c>
       <c r="B10">
-        <v>39.234999999999893</v>
+        <v>37.904999999999895</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>45.234999999999893</v>
+        <v>43.904999999999895</v>
       </c>
       <c r="D10" s="1">
         <v>10357</v>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>0.66499999999989079</v>
+        <v>0.66499999999989257</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -12129,11 +12129,11 @@
         <v>43</v>
       </c>
       <c r="B11">
-        <v>38.569999999999894</v>
+        <v>37.239999999999895</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>44.569999999999894</v>
+        <v>43.239999999999895</v>
       </c>
       <c r="D11" s="1">
         <v>9542</v>
@@ -12148,7 +12148,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -12156,11 +12156,11 @@
         <v>44</v>
       </c>
       <c r="B12">
-        <v>38.126666666666594</v>
+        <v>36.796666666666596</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>44.126666666666594</v>
+        <v>42.796666666666596</v>
       </c>
       <c r="D12" s="1">
         <v>9270</v>
@@ -12175,19 +12175,19 @@
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>45</v>
       </c>
-      <c r="B13" s="2">
-        <v>37.683333333333195</v>
+      <c r="B13">
+        <v>36.353333333333197</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="0"/>
-        <v>43.683333333333195</v>
+        <v>42.353333333333197</v>
       </c>
       <c r="D13" s="1">
         <v>9844</v>
@@ -12202,7 +12202,7 @@
       </c>
       <c r="J13" s="2">
         <f t="shared" si="3"/>
-        <v>0.44333333333319302</v>
+        <v>0.4433333333331948</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -12210,11 +12210,11 @@
         <v>46</v>
       </c>
       <c r="B14">
-        <v>37.239999999999888</v>
+        <v>35.90999999999989</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>43.239999999999888</v>
+        <v>41.90999999999989</v>
       </c>
       <c r="D14" s="1">
         <v>10532</v>
@@ -12229,7 +12229,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>1.3299999999998864</v>
+        <v>1.3299999999998882</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -12237,11 +12237,11 @@
         <v>47</v>
       </c>
       <c r="B15">
-        <v>36.574999999999896</v>
+        <v>35.244999999999898</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>42.574999999999896</v>
+        <v>41.244999999999898</v>
       </c>
       <c r="D15" s="1">
         <v>9978</v>
@@ -12256,7 +12256,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>0.66499999999989434</v>
+        <v>0.66499999999989612</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -12264,11 +12264,11 @@
         <v>48</v>
       </c>
       <c r="B16">
-        <v>35.90999999999989</v>
+        <v>34.579999999999892</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>41.90999999999989</v>
+        <v>40.579999999999892</v>
       </c>
       <c r="D16" s="1">
         <v>10059</v>
@@ -12283,19 +12283,19 @@
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
-        <v>1.3299999999998882</v>
+        <v>1.3299999999998899</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>49</v>
       </c>
-      <c r="B17" s="2">
-        <v>35.577499999999894</v>
+      <c r="B17">
+        <v>34.247499999999896</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="0"/>
-        <v>41.577499999999894</v>
+        <v>40.247499999999896</v>
       </c>
       <c r="D17" s="1">
         <v>9256</v>
@@ -12310,7 +12310,7 @@
       </c>
       <c r="J17" s="2">
         <f t="shared" si="3"/>
-        <v>0.99749999999989214</v>
+        <v>0.99749999999989392</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -12318,11 +12318,11 @@
         <v>50</v>
       </c>
       <c r="B18">
-        <v>35.244999999999898</v>
+        <v>33.9149999999999</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
-        <v>41.244999999999898</v>
+        <v>39.9149999999999</v>
       </c>
       <c r="D18" s="1">
         <v>9371</v>
@@ -12337,19 +12337,19 @@
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
-        <v>0.66499999999989612</v>
+        <v>0.6649999999998979</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>51</v>
       </c>
-      <c r="B19" s="2">
-        <v>34.912499999999895</v>
+      <c r="B19">
+        <v>33.582499999999897</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="0"/>
-        <v>40.912499999999895</v>
+        <v>39.582499999999897</v>
       </c>
       <c r="D19" s="1">
         <v>10460</v>
@@ -12364,7 +12364,7 @@
       </c>
       <c r="J19" s="2">
         <f t="shared" si="3"/>
-        <v>0.33249999999989299</v>
+        <v>0.33249999999989477</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -12372,11 +12372,11 @@
         <v>52</v>
       </c>
       <c r="B20">
-        <v>34.579999999999892</v>
+        <v>33.249999999999893</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
-        <v>40.579999999999892</v>
+        <v>39.249999999999893</v>
       </c>
       <c r="D20" s="1">
         <v>10734</v>
@@ -12391,7 +12391,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
@@ -12399,11 +12399,11 @@
         <v>53</v>
       </c>
       <c r="B21">
-        <v>33.914999999999893</v>
+        <v>32.584999999999894</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
-        <v>39.914999999999893</v>
+        <v>38.584999999999894</v>
       </c>
       <c r="D21" s="1">
         <v>10788</v>
@@ -12418,7 +12418,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
-        <v>0.66499999999989079</v>
+        <v>0.66499999999989257</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
@@ -12426,11 +12426,11 @@
         <v>54</v>
       </c>
       <c r="B22">
-        <v>33.249999999999893</v>
+        <v>31.919999999999895</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>39.249999999999893</v>
+        <v>37.919999999999895</v>
       </c>
       <c r="D22" s="1">
         <v>8765</v>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
@@ -12453,11 +12453,11 @@
         <v>55</v>
       </c>
       <c r="B23">
-        <v>32.806666666666594</v>
+        <v>31.476666666666596</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>38.806666666666594</v>
+        <v>37.476666666666596</v>
       </c>
       <c r="D23" s="1">
         <v>8871</v>
@@ -12472,7 +12472,7 @@
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
@@ -12480,11 +12480,11 @@
         <v>56</v>
       </c>
       <c r="B24">
-        <v>32.363333333333294</v>
+        <v>31.033333333333296</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>38.363333333333294</v>
+        <v>37.033333333333296</v>
       </c>
       <c r="D24" s="1">
         <v>10042</v>
@@ -12499,7 +12499,7 @@
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
-        <v>0.4433333333332925</v>
+        <v>0.44333333333329428</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
@@ -12507,11 +12507,11 @@
         <v>57</v>
       </c>
       <c r="B25">
-        <v>31.919999999999895</v>
+        <v>30.589999999999897</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>37.919999999999895</v>
+        <v>36.589999999999897</v>
       </c>
       <c r="D25" s="1">
         <v>9900</v>
@@ -12526,7 +12526,7 @@
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -12534,11 +12534,11 @@
         <v>58</v>
       </c>
       <c r="B26">
-        <v>31.254999999999896</v>
+        <v>29.924999999999898</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>37.254999999999896</v>
+        <v>35.924999999999898</v>
       </c>
       <c r="D26" s="1">
         <v>9777</v>
@@ -12553,7 +12553,7 @@
       </c>
       <c r="J26">
         <f t="shared" si="3"/>
-        <v>0.66499999999989434</v>
+        <v>0.66499999999989612</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
@@ -12561,11 +12561,11 @@
         <v>59</v>
       </c>
       <c r="B27">
-        <v>30.589999999999897</v>
+        <v>29.259999999999899</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
-        <v>36.589999999999897</v>
+        <v>35.259999999999899</v>
       </c>
       <c r="D27" s="1">
         <v>9599</v>
@@ -12580,19 +12580,19 @@
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
+        <v>1.329999999999897</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>60</v>
       </c>
-      <c r="B28" s="2">
-        <v>30.14666666666659</v>
+      <c r="B28">
+        <v>28.816666666666592</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" si="0"/>
-        <v>36.14666666666659</v>
+        <v>34.816666666666592</v>
       </c>
       <c r="D28" s="1">
         <v>8516</v>
@@ -12607,7 +12607,7 @@
       </c>
       <c r="J28" s="2">
         <f t="shared" si="3"/>
-        <v>0.88666666666658855</v>
+        <v>0.88666666666659033</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
@@ -12615,11 +12615,11 @@
         <v>61</v>
       </c>
       <c r="B29">
-        <v>29.703333333333291</v>
+        <v>28.373333333333292</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="0"/>
-        <v>35.703333333333291</v>
+        <v>34.373333333333292</v>
       </c>
       <c r="D29" s="1">
         <v>9773</v>
@@ -12634,7 +12634,7 @@
       </c>
       <c r="J29">
         <f t="shared" si="3"/>
-        <v>0.44333333333328895</v>
+        <v>0.44333333333329072</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
@@ -12642,11 +12642,11 @@
         <v>62</v>
       </c>
       <c r="B30">
-        <v>29.259999999999891</v>
+        <v>27.929999999999893</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="0"/>
-        <v>35.259999999999891</v>
+        <v>33.929999999999893</v>
       </c>
       <c r="D30" s="1">
         <v>10070</v>
@@ -12661,7 +12661,7 @@
       </c>
       <c r="J30">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
@@ -12669,11 +12669,11 @@
         <v>63</v>
       </c>
       <c r="B31">
-        <v>28.816666666666592</v>
+        <v>27.486666666666594</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="0"/>
-        <v>34.816666666666592</v>
+        <v>33.486666666666594</v>
       </c>
       <c r="D31" s="1">
         <v>10596</v>
@@ -12688,7 +12688,7 @@
       </c>
       <c r="J31">
         <f t="shared" si="3"/>
-        <v>0.88666666666659033</v>
+        <v>0.88666666666659211</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
@@ -12696,11 +12696,11 @@
         <v>64</v>
       </c>
       <c r="B32">
-        <v>28.373333333333292</v>
+        <v>27.043333333333294</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="0"/>
-        <v>34.373333333333292</v>
+        <v>33.043333333333294</v>
       </c>
       <c r="D32" s="1">
         <v>9946</v>
@@ -12715,7 +12715,7 @@
       </c>
       <c r="J32">
         <f t="shared" si="3"/>
-        <v>0.44333333333329072</v>
+        <v>0.4433333333332925</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
@@ -12723,11 +12723,11 @@
         <v>65</v>
       </c>
       <c r="B33">
-        <v>27.929999999999893</v>
+        <v>26.599999999999895</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" ref="C33:C96" si="4">B33+6</f>
-        <v>33.929999999999893</v>
+        <v>32.599999999999895</v>
       </c>
       <c r="D33" s="1">
         <v>9263</v>
@@ -12742,19 +12742,19 @@
       </c>
       <c r="J33">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>66</v>
       </c>
-      <c r="B34" s="2">
-        <v>27.59749999999989</v>
+      <c r="B34">
+        <v>26.267499999999892</v>
       </c>
       <c r="C34" s="3">
         <f t="shared" si="4"/>
-        <v>33.59749999999989</v>
+        <v>32.267499999999892</v>
       </c>
       <c r="D34" s="1">
         <v>8823</v>
@@ -12769,7 +12769,7 @@
       </c>
       <c r="J34" s="2">
         <f t="shared" si="3"/>
-        <v>0.99749999999988859</v>
+        <v>0.99749999999989036</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
@@ -12777,11 +12777,11 @@
         <v>67</v>
       </c>
       <c r="B35">
-        <v>27.264999999999894</v>
+        <v>25.934999999999896</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="4"/>
-        <v>33.264999999999894</v>
+        <v>31.934999999999896</v>
       </c>
       <c r="D35" s="1">
         <v>8924</v>
@@ -12796,7 +12796,7 @@
       </c>
       <c r="J35">
         <f t="shared" si="3"/>
-        <v>0.66499999999989257</v>
+        <v>0.66499999999989434</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
@@ -12804,11 +12804,11 @@
         <v>68</v>
       </c>
       <c r="B36">
-        <v>26.932499999999891</v>
+        <v>25.602499999999893</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="4"/>
-        <v>32.932499999999891</v>
+        <v>31.602499999999893</v>
       </c>
       <c r="D36" s="1">
         <v>9789</v>
@@ -12823,7 +12823,7 @@
       </c>
       <c r="J36">
         <f t="shared" si="3"/>
-        <v>0.33249999999988944</v>
+        <v>0.33249999999989122</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -12831,11 +12831,11 @@
         <v>69</v>
       </c>
       <c r="B37">
-        <v>26.599999999999895</v>
+        <v>25.269999999999897</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="4"/>
-        <v>32.599999999999895</v>
+        <v>31.269999999999897</v>
       </c>
       <c r="D37" s="1">
         <v>10730</v>
@@ -12850,7 +12850,7 @@
       </c>
       <c r="J37">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
@@ -12858,11 +12858,11 @@
         <v>70</v>
       </c>
       <c r="B38">
-        <v>25.934999999999896</v>
+        <v>24.604999999999897</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="4"/>
-        <v>31.934999999999896</v>
+        <v>30.604999999999897</v>
       </c>
       <c r="D38" s="1">
         <v>10075</v>
@@ -12877,7 +12877,7 @@
       </c>
       <c r="J38">
         <f t="shared" si="3"/>
-        <v>0.66499999999989434</v>
+        <v>0.66499999999989612</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
@@ -12885,11 +12885,11 @@
         <v>71</v>
       </c>
       <c r="B39">
-        <v>25.269999999999897</v>
+        <v>23.939999999999898</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="4"/>
-        <v>31.269999999999897</v>
+        <v>29.939999999999898</v>
       </c>
       <c r="D39" s="1">
         <v>9393</v>
@@ -12904,19 +12904,19 @@
       </c>
       <c r="J39">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
+        <v>1.329999999999897</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>72</v>
       </c>
-      <c r="B40" s="2">
-        <v>24.937499999999893</v>
+      <c r="B40">
+        <v>23.607499999999895</v>
       </c>
       <c r="C40" s="3">
         <f t="shared" si="4"/>
-        <v>30.937499999999893</v>
+        <v>29.607499999999895</v>
       </c>
       <c r="D40" s="1">
         <v>8894</v>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="J40" s="2">
         <f t="shared" si="3"/>
-        <v>0.99749999999989214</v>
+        <v>0.99749999999989392</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
@@ -12939,11 +12939,11 @@
         <v>73</v>
       </c>
       <c r="B41">
-        <v>24.60499999999989</v>
+        <v>23.274999999999892</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="4"/>
-        <v>30.60499999999989</v>
+        <v>29.274999999999892</v>
       </c>
       <c r="D41" s="1">
         <v>9260</v>
@@ -12958,7 +12958,7 @@
       </c>
       <c r="J41">
         <f t="shared" si="3"/>
-        <v>0.66499999999988901</v>
+        <v>0.66499999999989079</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
@@ -12966,11 +12966,11 @@
         <v>74</v>
       </c>
       <c r="B42">
-        <v>24.272499999999894</v>
+        <v>22.942499999999896</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="4"/>
-        <v>30.272499999999894</v>
+        <v>28.942499999999896</v>
       </c>
       <c r="D42" s="1">
         <v>9203</v>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="J42">
         <f t="shared" si="3"/>
-        <v>0.33249999999989299</v>
+        <v>0.33249999999989477</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
@@ -12993,11 +12993,11 @@
         <v>75</v>
       </c>
       <c r="B43">
-        <v>23.939999999999891</v>
+        <v>22.609999999999893</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="4"/>
-        <v>29.939999999999891</v>
+        <v>28.609999999999893</v>
       </c>
       <c r="D43" s="1">
         <v>10698</v>
@@ -13012,7 +13012,7 @@
       </c>
       <c r="J43">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -13020,11 +13020,11 @@
         <v>76</v>
       </c>
       <c r="B44">
-        <v>23.496666666666592</v>
+        <v>22.166666666666593</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" si="4"/>
-        <v>29.496666666666592</v>
+        <v>28.166666666666593</v>
       </c>
       <c r="D44" s="1">
         <v>10722</v>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="J44">
         <f t="shared" si="3"/>
-        <v>0.88666666666659033</v>
+        <v>0.88666666666659211</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
@@ -13047,11 +13047,11 @@
         <v>77</v>
       </c>
       <c r="B45">
-        <v>23.053333333333292</v>
+        <v>21.723333333333294</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="4"/>
-        <v>29.053333333333292</v>
+        <v>27.723333333333294</v>
       </c>
       <c r="D45" s="1">
         <v>10174</v>
@@ -13066,7 +13066,7 @@
       </c>
       <c r="J45">
         <f t="shared" si="3"/>
-        <v>0.44333333333329072</v>
+        <v>0.4433333333332925</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -13074,11 +13074,11 @@
         <v>78</v>
       </c>
       <c r="B46">
-        <v>22.609999999999893</v>
+        <v>21.279999999999895</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="4"/>
-        <v>28.609999999999893</v>
+        <v>27.279999999999895</v>
       </c>
       <c r="D46" s="1">
         <v>8217</v>
@@ -13093,7 +13093,7 @@
       </c>
       <c r="J46">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
@@ -13101,11 +13101,11 @@
         <v>79</v>
       </c>
       <c r="B47">
-        <v>22.166666666666593</v>
+        <v>20.836666666666595</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="4"/>
-        <v>28.166666666666593</v>
+        <v>26.836666666666595</v>
       </c>
       <c r="D47" s="1">
         <v>8896</v>
@@ -13120,7 +13120,7 @@
       </c>
       <c r="J47">
         <f t="shared" si="3"/>
-        <v>0.88666666666659211</v>
+        <v>0.88666666666659388</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -13128,11 +13128,11 @@
         <v>80</v>
       </c>
       <c r="B48">
-        <v>21.723333333333294</v>
+        <v>20.393333333333295</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" si="4"/>
-        <v>27.723333333333294</v>
+        <v>26.393333333333295</v>
       </c>
       <c r="D48" s="1">
         <v>10179</v>
@@ -13147,7 +13147,7 @@
       </c>
       <c r="J48">
         <f t="shared" si="3"/>
-        <v>0.4433333333332925</v>
+        <v>0.44333333333329428</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -13155,11 +13155,11 @@
         <v>81</v>
       </c>
       <c r="B49">
-        <v>21.279999999999895</v>
+        <v>19.949999999999896</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" si="4"/>
-        <v>27.279999999999895</v>
+        <v>25.949999999999896</v>
       </c>
       <c r="D49" s="1">
         <v>10352</v>
@@ -13174,19 +13174,19 @@
       </c>
       <c r="J49">
         <f t="shared" si="3"/>
-        <v>1.3299999999998935</v>
+        <v>1.3299999999998953</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>82</v>
       </c>
-      <c r="B50" s="2">
-        <v>20.836666666666595</v>
+      <c r="B50">
+        <v>19.506666666666597</v>
       </c>
       <c r="C50" s="3">
         <f t="shared" si="4"/>
-        <v>26.836666666666595</v>
+        <v>25.506666666666597</v>
       </c>
       <c r="D50" s="1">
         <v>11068</v>
@@ -13201,7 +13201,7 @@
       </c>
       <c r="J50" s="2">
         <f t="shared" si="3"/>
-        <v>0.88666666666659388</v>
+        <v>0.88666666666659566</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
@@ -13209,11 +13209,11 @@
         <v>83</v>
       </c>
       <c r="B51">
-        <v>20.393333333333295</v>
+        <v>19.063333333333297</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" si="4"/>
-        <v>26.393333333333295</v>
+        <v>25.063333333333297</v>
       </c>
       <c r="D51" s="1">
         <v>11005</v>
@@ -13228,7 +13228,7 @@
       </c>
       <c r="J51">
         <f t="shared" si="3"/>
-        <v>0.44333333333329428</v>
+        <v>0.44333333333329605</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
@@ -13236,11 +13236,11 @@
         <v>84</v>
       </c>
       <c r="B52">
-        <v>19.949999999999896</v>
+        <v>18.619999999999898</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="4"/>
-        <v>25.949999999999896</v>
+        <v>24.619999999999898</v>
       </c>
       <c r="D52" s="1">
         <v>10073</v>
@@ -13255,19 +13255,19 @@
       </c>
       <c r="J52">
         <f t="shared" si="3"/>
-        <v>1.3299999999998953</v>
+        <v>1.329999999999897</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>85</v>
       </c>
-      <c r="B53" s="2">
-        <v>19.683999999999891</v>
+      <c r="B53">
+        <v>18.353999999999893</v>
       </c>
       <c r="C53" s="3">
         <f t="shared" si="4"/>
-        <v>25.683999999999891</v>
+        <v>24.353999999999893</v>
       </c>
       <c r="D53" s="1">
         <v>8828</v>
@@ -13282,7 +13282,7 @@
       </c>
       <c r="J53" s="2">
         <f t="shared" si="3"/>
-        <v>1.0639999999998899</v>
+        <v>1.0639999999998917</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
@@ -13290,11 +13290,11 @@
         <v>86</v>
       </c>
       <c r="B54">
-        <v>19.417999999999893</v>
+        <v>18.087999999999894</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" si="4"/>
-        <v>25.417999999999893</v>
+        <v>24.087999999999894</v>
       </c>
       <c r="D54" s="1">
         <v>8916</v>
@@ -13309,7 +13309,7 @@
       </c>
       <c r="J54">
         <f t="shared" si="3"/>
-        <v>0.79799999999989168</v>
+        <v>0.79799999999989346</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
@@ -13317,11 +13317,11 @@
         <v>87</v>
       </c>
       <c r="B55">
-        <v>19.151999999999894</v>
+        <v>17.821999999999896</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" si="4"/>
-        <v>25.151999999999894</v>
+        <v>23.821999999999896</v>
       </c>
       <c r="D55" s="1">
         <v>8964</v>
@@ -13336,7 +13336,7 @@
       </c>
       <c r="J55">
         <f t="shared" si="3"/>
-        <v>0.53199999999989345</v>
+        <v>0.53199999999989522</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
@@ -13344,11 +13344,11 @@
         <v>88</v>
       </c>
       <c r="B56">
-        <v>18.885999999999896</v>
+        <v>17.555999999999898</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="4"/>
-        <v>24.885999999999896</v>
+        <v>23.555999999999898</v>
       </c>
       <c r="D56" s="1">
         <v>10149</v>
@@ -13363,7 +13363,7 @@
       </c>
       <c r="J56">
         <f t="shared" si="3"/>
-        <v>0.26599999999989521</v>
+        <v>0.26599999999989699</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
@@ -13371,11 +13371,11 @@
         <v>89</v>
       </c>
       <c r="B57">
-        <v>18.619999999999891</v>
+        <v>17.289999999999893</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" si="4"/>
-        <v>24.619999999999891</v>
+        <v>23.289999999999893</v>
       </c>
       <c r="D57" s="1">
         <v>10730</v>
@@ -13390,7 +13390,7 @@
       </c>
       <c r="J57">
         <f t="shared" si="3"/>
-        <v>1.3299999999998899</v>
+        <v>1.3299999999998917</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
@@ -13398,11 +13398,11 @@
         <v>90</v>
       </c>
       <c r="B58">
-        <v>18.176666666666591</v>
+        <v>16.957499999999893</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" si="4"/>
-        <v>24.176666666666591</v>
+        <v>22.957499999999893</v>
       </c>
       <c r="D58" s="1">
         <v>10419</v>
@@ -13417,7 +13417,7 @@
       </c>
       <c r="J58">
         <f t="shared" si="3"/>
-        <v>0.88666666666659033</v>
+        <v>0.99749999999989214</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
@@ -13425,11 +13425,11 @@
         <v>91</v>
       </c>
       <c r="B59">
-        <v>17.733333333333292</v>
+        <v>16.624999999999893</v>
       </c>
       <c r="C59" s="1">
         <f t="shared" si="4"/>
-        <v>23.733333333333292</v>
+        <v>22.624999999999893</v>
       </c>
       <c r="D59" s="1">
         <v>9540</v>
@@ -13444,7 +13444,7 @@
       </c>
       <c r="J59">
         <f t="shared" si="3"/>
-        <v>0.44333333333329072</v>
+        <v>0.66499999999989257</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
@@ -13452,11 +13452,11 @@
         <v>92</v>
       </c>
       <c r="B60">
-        <v>17.289999999999893</v>
+        <v>16.292499999999894</v>
       </c>
       <c r="C60" s="1">
         <f t="shared" si="4"/>
-        <v>23.289999999999893</v>
+        <v>22.292499999999894</v>
       </c>
       <c r="D60" s="1">
         <v>9050</v>
@@ -13471,19 +13471,19 @@
       </c>
       <c r="J60">
         <f t="shared" si="3"/>
-        <v>1.3299999999998917</v>
+        <v>0.33249999999989299</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>93</v>
       </c>
-      <c r="B61" s="2">
-        <v>15.959</v>
+      <c r="B61">
+        <v>15.959999999999894</v>
       </c>
       <c r="C61" s="3">
         <f t="shared" si="4"/>
-        <v>21.959</v>
+        <v>21.959999999999894</v>
       </c>
       <c r="D61" s="1">
         <v>8404</v>
@@ -13498,7 +13498,7 @@
       </c>
       <c r="J61" s="2">
         <f t="shared" si="3"/>
-        <v>1.3289999999999988</v>
+        <v>1.3299999999998935</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
@@ -13694,7 +13694,7 @@
       <c r="A69" s="3">
         <v>101</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69">
         <v>13.033999999999892</v>
       </c>
       <c r="C69" s="3">
@@ -13829,7 +13829,7 @@
       <c r="A74" s="3">
         <v>106</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74">
         <v>11.703999999999894</v>
       </c>
       <c r="C74" s="3">
@@ -14072,7 +14072,7 @@
       <c r="A83" s="3">
         <v>115</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83">
         <v>9.0883333333332956</v>
       </c>
       <c r="C83" s="3">
@@ -14504,7 +14504,7 @@
       <c r="A99" s="3">
         <v>131</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99">
         <v>5.1299999999999955</v>
       </c>
       <c r="C99" s="3">
@@ -14639,7 +14639,7 @@
       <c r="A104" s="3">
         <v>136</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104">
         <v>4.1799999999999926</v>
       </c>
       <c r="C104" s="3">
@@ -15341,7 +15341,7 @@
       <c r="A130" s="3">
         <v>162</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130">
         <v>0.14777777777769785</v>
       </c>
       <c r="C130" s="3">
@@ -15406,15 +15406,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
@@ -15429,7 +15429,7 @@
       <c r="H1" s="25"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>163</v>
       </c>
@@ -15481,8 +15481,12 @@
         <f t="shared" ref="I3:I34" si="0">D3/H3</f>
         <v>1.0353744101237679</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3">
+        <f>B3-F3</f>
+        <v>-0.14777777777769785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>154</v>
       </c>
@@ -15513,8 +15517,12 @@
         <f t="shared" si="0"/>
         <v>1.2360083869478595</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J4">
+        <f t="shared" ref="J4:J35" si="3">B4-F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>144</v>
       </c>
@@ -15545,8 +15553,12 @@
         <f t="shared" si="0"/>
         <v>1.3134002943880807</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>137</v>
       </c>
@@ -15577,8 +15589,12 @@
         <f t="shared" si="0"/>
         <v>1.4265775154829756</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>-0.18999999999999773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>130</v>
       </c>
@@ -15609,8 +15625,12 @@
         <f t="shared" si="0"/>
         <v>1.0985390475772252</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0.18999999999999773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>125</v>
       </c>
@@ -15641,8 +15661,12 @@
         <f t="shared" si="0"/>
         <v>1.0284580762762709</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>119</v>
       </c>
@@ -15673,8 +15697,12 @@
         <f t="shared" si="0"/>
         <v>1.2158414196101535</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>115</v>
       </c>
@@ -15705,8 +15733,12 @@
         <f t="shared" si="0"/>
         <v>1.3108093650663315</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>110</v>
       </c>
@@ -15737,8 +15769,12 @@
         <f t="shared" si="0"/>
         <v>1.1087099497085688</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>105</v>
       </c>
@@ -15769,8 +15805,12 @@
         <f t="shared" si="0"/>
         <v>1.1878333412073245</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0.26599999999999824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>100</v>
       </c>
@@ -15801,8 +15841,12 @@
         <f t="shared" si="0"/>
         <v>1.519881704425436</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0.26599999999999824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>97</v>
       </c>
@@ -15833,13 +15877,17 @@
         <f t="shared" si="0"/>
         <v>1.3807466490207423</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>92</v>
       </c>
-      <c r="B15" s="5">
-        <v>17.289999999999893</v>
+      <c r="B15">
+        <v>16.292499999999894</v>
       </c>
       <c r="C15" s="5">
         <v>-0.28473133916368754</v>
@@ -15865,13 +15913,17 @@
         <f t="shared" si="0"/>
         <v>1.2145181775123426</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>0.33349999999989421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>88</v>
       </c>
       <c r="B16" s="8">
-        <v>18.885999999999896</v>
+        <v>17.555999999999898</v>
       </c>
       <c r="C16" s="8">
         <v>0.20185798057382145</v>
@@ -15884,7 +15936,7 @@
         <v>89</v>
       </c>
       <c r="F16" s="8">
-        <v>18.885999999999896</v>
+        <v>17.555999999999898</v>
       </c>
       <c r="G16" s="5">
         <v>0.17914262656640748</v>
@@ -15897,13 +15949,17 @@
         <f t="shared" si="0"/>
         <v>1.0016378835362083</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>84</v>
       </c>
       <c r="B17" s="5">
-        <v>19.949999999999896</v>
+        <v>18.619999999999898</v>
       </c>
       <c r="C17" s="5">
         <v>-0.19855135607190708</v>
@@ -15916,7 +15972,7 @@
         <v>85</v>
       </c>
       <c r="F17" s="8">
-        <v>19.683999999999891</v>
+        <v>18.353999999999893</v>
       </c>
       <c r="G17" s="8">
         <v>-0.22061195862571106</v>
@@ -15929,13 +15985,17 @@
         <f t="shared" si="0"/>
         <v>0.96865016382520031</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0.26600000000000534</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>81</v>
       </c>
       <c r="B18" s="5">
-        <v>21.279999999999895</v>
+        <v>19.949999999999896</v>
       </c>
       <c r="C18" s="5">
         <v>0.21559134045248238</v>
@@ -15948,7 +16008,7 @@
         <v>82</v>
       </c>
       <c r="F18" s="8">
-        <v>20.836666666666595</v>
+        <v>19.506666666666597</v>
       </c>
       <c r="G18" s="8">
         <v>0.20693424122103196</v>
@@ -15961,13 +16021,17 @@
         <f t="shared" si="0"/>
         <v>1.1534791437804515</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>0.44333333333329961</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>78</v>
       </c>
       <c r="B19" s="5">
-        <v>22.609999999999893</v>
+        <v>21.279999999999895</v>
       </c>
       <c r="C19" s="5">
         <v>-0.24000342396254418</v>
@@ -15980,7 +16044,7 @@
         <v>78</v>
       </c>
       <c r="F19" s="5">
-        <v>22.609999999999893</v>
+        <v>21.279999999999895</v>
       </c>
       <c r="G19" s="5">
         <v>-0.18804018625049115</v>
@@ -15993,13 +16057,17 @@
         <f t="shared" si="0"/>
         <v>1.0788023219501652</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>75</v>
       </c>
       <c r="B20" s="5">
-        <v>23.939999999999891</v>
+        <v>22.609999999999893</v>
       </c>
       <c r="C20" s="5">
         <v>0.16342977173903631</v>
@@ -16012,7 +16080,7 @@
         <v>75</v>
       </c>
       <c r="F20" s="5">
-        <v>23.939999999999891</v>
+        <v>22.609999999999893</v>
       </c>
       <c r="G20" s="5">
         <v>0.18592378054213585</v>
@@ -16025,13 +16093,17 @@
         <f t="shared" si="0"/>
         <v>1.2131483196575115</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>71</v>
       </c>
       <c r="B21" s="5">
-        <v>25.269999999999897</v>
+        <v>23.939999999999898</v>
       </c>
       <c r="C21" s="5">
         <v>-0.26772213197452033</v>
@@ -16044,7 +16116,7 @@
         <v>72</v>
       </c>
       <c r="F21" s="8">
-        <v>24.937499999999893</v>
+        <v>23.607499999999895</v>
       </c>
       <c r="G21" s="8">
         <v>-0.16947538766120201</v>
@@ -16057,13 +16129,17 @@
         <f t="shared" si="0"/>
         <v>1.7785827339321467</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>0.33250000000000313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>69</v>
       </c>
       <c r="B22" s="5">
-        <v>26.599999999999895</v>
+        <v>25.269999999999897</v>
       </c>
       <c r="C22" s="5">
         <v>0.20324391597442026</v>
@@ -16076,7 +16152,7 @@
         <v>69</v>
       </c>
       <c r="F22" s="5">
-        <v>26.599999999999895</v>
+        <v>25.269999999999897</v>
       </c>
       <c r="G22" s="5">
         <v>9.5323116768060046E-2</v>
@@ -16089,13 +16165,17 @@
         <f t="shared" si="0"/>
         <v>1.3088358506969409</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>65</v>
       </c>
       <c r="B23" s="5">
-        <v>27.929999999999893</v>
+        <v>26.599999999999895</v>
       </c>
       <c r="C23" s="5">
         <v>-0.15861121770919595</v>
@@ -16108,7 +16188,7 @@
         <v>66</v>
       </c>
       <c r="F23" s="8">
-        <v>27.59749999999989</v>
+        <v>26.267499999999892</v>
       </c>
       <c r="G23" s="8">
         <v>-0.18114786581614428</v>
@@ -16121,13 +16201,17 @@
         <f t="shared" si="0"/>
         <v>0.98238736157829942</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>0.33250000000000313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>62</v>
       </c>
       <c r="B24" s="5">
-        <v>29.259999999999891</v>
+        <v>27.929999999999893</v>
       </c>
       <c r="C24" s="5">
         <v>0.1782970787636417</v>
@@ -16140,7 +16224,7 @@
         <v>62</v>
       </c>
       <c r="F24" s="5">
-        <v>29.259999999999891</v>
+        <v>27.929999999999893</v>
       </c>
       <c r="G24" s="5">
         <v>0.16180065902192181</v>
@@ -16153,13 +16237,17 @@
         <f t="shared" si="0"/>
         <v>1.0457747939676283</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>59</v>
       </c>
       <c r="B25" s="5">
-        <v>30.589999999999897</v>
+        <v>29.259999999999899</v>
       </c>
       <c r="C25" s="5">
         <v>-0.20371711529232084</v>
@@ -16172,7 +16260,7 @@
         <v>60</v>
       </c>
       <c r="F25" s="8">
-        <v>30.14666666666659</v>
+        <v>28.816666666666592</v>
       </c>
       <c r="G25" s="8">
         <v>-0.20349232399846237</v>
@@ -16185,13 +16273,17 @@
         <f t="shared" si="0"/>
         <v>1.0629641522459432</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>0.44333333333330671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>57</v>
       </c>
       <c r="B26" s="5">
-        <v>31.919999999999895</v>
+        <v>30.589999999999897</v>
       </c>
       <c r="C26" s="5">
         <v>0.13671901674567746</v>
@@ -16204,7 +16296,7 @@
         <v>57</v>
       </c>
       <c r="F26" s="5">
-        <v>31.919999999999895</v>
+        <v>30.589999999999897</v>
       </c>
       <c r="G26" s="5">
         <v>0.11677824328143015</v>
@@ -16217,13 +16309,17 @@
         <f t="shared" si="0"/>
         <v>0.92639337983352399</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>54</v>
       </c>
       <c r="B27" s="5">
-        <v>33.249999999999893</v>
+        <v>31.919999999999895</v>
       </c>
       <c r="C27" s="5">
         <v>-0.16327300042030105</v>
@@ -16236,7 +16332,7 @@
         <v>54</v>
       </c>
       <c r="F27" s="5">
-        <v>33.249999999999893</v>
+        <v>31.919999999999895</v>
       </c>
       <c r="G27" s="5">
         <v>-0.20704965067425429</v>
@@ -16249,13 +16345,17 @@
         <f t="shared" si="0"/>
         <v>0.64208946105887876</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>52</v>
       </c>
       <c r="B28" s="5">
-        <v>34.579999999999892</v>
+        <v>33.249999999999893</v>
       </c>
       <c r="C28" s="5">
         <v>7.170604704486061E-2</v>
@@ -16268,7 +16368,7 @@
         <v>51</v>
       </c>
       <c r="F28" s="8">
-        <v>34.912499999999895</v>
+        <v>33.582499999999897</v>
       </c>
       <c r="G28" s="8">
         <v>0.15891033109784086</v>
@@ -16281,13 +16381,17 @@
         <f t="shared" si="0"/>
         <v>0.99781737428438633</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>-0.33250000000000313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>49</v>
       </c>
       <c r="B29" s="8">
-        <v>35.577499999999894</v>
+        <v>34.247499999999896</v>
       </c>
       <c r="C29" s="8">
         <v>-0.19073972017762289</v>
@@ -16300,7 +16404,7 @@
         <v>48</v>
       </c>
       <c r="F29" s="8">
-        <v>35.577499999999894</v>
+        <v>34.247499999999896</v>
       </c>
       <c r="G29" s="5">
         <v>-0.10410950999352522</v>
@@ -16313,13 +16417,17 @@
         <f t="shared" si="0"/>
         <v>2.822520294427707</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>46</v>
       </c>
       <c r="B30" s="5">
-        <v>37.239999999999888</v>
+        <v>35.90999999999989</v>
       </c>
       <c r="C30" s="5">
         <v>0.16695760730419693</v>
@@ -16332,7 +16440,7 @@
         <v>45</v>
       </c>
       <c r="F30" s="8">
-        <v>37.683333333333195</v>
+        <v>36.353333333333197</v>
       </c>
       <c r="G30" s="8">
         <v>2.2620252831562406E-2</v>
@@ -16345,13 +16453,17 @@
         <f t="shared" si="0"/>
         <v>2.6464426669574395</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>-0.44333333333330671</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>43</v>
       </c>
       <c r="B31" s="5">
-        <v>38.569999999999894</v>
+        <v>37.239999999999895</v>
       </c>
       <c r="C31" s="5">
         <v>-0.12812063889602218</v>
@@ -16364,7 +16476,7 @@
         <v>43</v>
       </c>
       <c r="F31" s="5">
-        <v>38.569999999999894</v>
+        <v>37.239999999999895</v>
       </c>
       <c r="G31" s="5">
         <v>-8.8879705162791006E-2</v>
@@ -16377,13 +16489,17 @@
         <f t="shared" si="0"/>
         <v>2.2059879350601683</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>41</v>
       </c>
       <c r="B32" s="5">
-        <v>39.899999999999892</v>
+        <v>38.569999999999894</v>
       </c>
       <c r="C32" s="5">
         <v>0.1188278506652201</v>
@@ -16396,7 +16512,7 @@
         <v>41</v>
       </c>
       <c r="F32" s="5">
-        <v>39.899999999999892</v>
+        <v>38.569999999999894</v>
       </c>
       <c r="G32" s="5">
         <v>2.30649186660364E-2</v>
@@ -16409,13 +16525,17 @@
         <f t="shared" si="0"/>
         <v>1.8110306122756714</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>38</v>
       </c>
       <c r="B33" s="5">
-        <v>41.229999999999897</v>
+        <v>39.899999999999899</v>
       </c>
       <c r="C33" s="5">
         <v>-9.1960324353125983E-2</v>
@@ -16428,7 +16548,7 @@
         <v>38</v>
       </c>
       <c r="F33" s="5">
-        <v>41.229999999999897</v>
+        <v>39.899999999999899</v>
       </c>
       <c r="G33" s="5">
         <v>-9.3326363507530929E-2</v>
@@ -16441,13 +16561,17 @@
         <f t="shared" si="0"/>
         <v>0.78583053049345708</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>36</v>
       </c>
       <c r="B34" s="5">
-        <v>42.559999999999896</v>
+        <v>41.229999999999897</v>
       </c>
       <c r="C34" s="5">
         <v>4.9909063017261161E-2</v>
@@ -16460,7 +16584,7 @@
         <v>35</v>
       </c>
       <c r="F34" s="8">
-        <v>43.003333333333195</v>
+        <v>41.673333333333197</v>
       </c>
       <c r="G34" s="8">
         <v>8.72079652889097E-2</v>
@@ -16473,13 +16597,17 @@
         <f t="shared" si="0"/>
         <v>0.76250308691426416</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>-0.44333333333329961</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>43.889999999999894</v>
+        <v>42.559999999999896</v>
       </c>
       <c r="C35" s="5">
         <v>-0.10292181343058929</v>
@@ -16491,7 +16619,7 @@
         <v>33</v>
       </c>
       <c r="F35" s="10">
-        <v>43.889999999999894</v>
+        <v>42.559999999999896</v>
       </c>
       <c r="G35" s="10">
         <v>-0.11322515960024206</v>
@@ -16502,8 +16630,12 @@
       <c r="I35" s="17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -16513,7 +16645,7 @@
         <v>1.2979419997967521</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>49</v>
       </c>
@@ -16534,7 +16666,7 @@
         <v>8.72079652889097E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>85</v>
       </c>
@@ -16554,8 +16686,15 @@
       <c r="G41" s="2">
         <v>2.2620252831562406E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J41" s="8">
+        <v>18.885999999999896</v>
+      </c>
+      <c r="K41">
+        <f>J41-1.33</f>
+        <v>17.555999999999898</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>88</v>
       </c>
@@ -16575,8 +16714,15 @@
       <c r="G42" s="2">
         <v>0.15891033109784086</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J42" s="8">
+        <v>19.683999999999891</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ref="K42:K60" si="4">J42-1.33</f>
+        <v>18.353999999999893</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>115</v>
       </c>
@@ -16596,8 +16742,15 @@
       <c r="G43" s="2">
         <v>-0.20349232399846237</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J43" s="8">
+        <v>20.836666666666595</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="4"/>
+        <v>19.506666666666597</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>119</v>
       </c>
@@ -16617,8 +16770,15 @@
       <c r="G44" s="2">
         <v>-0.18114786581614428</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J44" s="5">
+        <v>22.609999999999893</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="4"/>
+        <v>21.279999999999895</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>144</v>
       </c>
@@ -16638,8 +16798,15 @@
       <c r="G45" s="2">
         <v>-0.16947538766120201</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J45" s="5">
+        <v>23.939999999999891</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="4"/>
+        <v>22.609999999999893</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E46" s="3">
         <v>82</v>
       </c>
@@ -16649,8 +16816,15 @@
       <c r="G46" s="2">
         <v>0.20693424122103196</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J46" s="8">
+        <v>24.937499999999893</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="4"/>
+        <v>23.607499999999895</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E47" s="3">
         <v>85</v>
       </c>
@@ -16660,8 +16834,15 @@
       <c r="G47" s="2">
         <v>-0.22061195862571106</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J47" s="5">
+        <v>26.599999999999895</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="4"/>
+        <v>25.269999999999897</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E48" s="3">
         <v>93</v>
       </c>
@@ -16671,8 +16852,15 @@
       <c r="G48" s="2">
         <v>-0.22150129029465904</v>
       </c>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="J48" s="8">
+        <v>27.59749999999989</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="4"/>
+        <v>26.267499999999892</v>
+      </c>
+    </row>
+    <row r="49" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E49" s="3">
         <v>101</v>
       </c>
@@ -16682,8 +16870,15 @@
       <c r="G49" s="2">
         <v>-0.18114786581614428</v>
       </c>
-    </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="J49" s="5">
+        <v>29.259999999999891</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="4"/>
+        <v>27.929999999999893</v>
+      </c>
+    </row>
+    <row r="50" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E50" s="3">
         <v>106</v>
       </c>
@@ -16693,8 +16888,15 @@
       <c r="G50" s="2">
         <v>0.25618098238902653</v>
       </c>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="J50" s="8">
+        <v>30.14666666666659</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="4"/>
+        <v>28.816666666666592</v>
+      </c>
+    </row>
+    <row r="51" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E51" s="3">
         <v>115</v>
       </c>
@@ -16704,8 +16906,15 @@
       <c r="G51" s="2">
         <v>0.20493324496589901</v>
       </c>
-    </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="J51" s="5">
+        <v>31.919999999999895</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="4"/>
+        <v>30.589999999999897</v>
+      </c>
+    </row>
+    <row r="52" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E52" s="3">
         <v>131</v>
       </c>
@@ -16715,8 +16924,15 @@
       <c r="G52" s="2">
         <v>-0.2497375707837575</v>
       </c>
-    </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="J52" s="5">
+        <v>33.249999999999893</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="4"/>
+        <v>31.919999999999895</v>
+      </c>
+    </row>
+    <row r="53" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E53" s="3">
         <v>136</v>
       </c>
@@ -16726,8 +16942,15 @@
       <c r="G53" s="2">
         <v>0.19159326993167924</v>
       </c>
-    </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="J53" s="8">
+        <v>34.912499999999895</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="4"/>
+        <v>33.582499999999897</v>
+      </c>
+    </row>
+    <row r="54" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E54" s="3">
         <v>162</v>
       </c>
@@ -16736,6 +16959,67 @@
       </c>
       <c r="G54" s="2">
         <v>-0.3405605674750703</v>
+      </c>
+      <c r="J54" s="8">
+        <v>35.577499999999894</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="4"/>
+        <v>34.247499999999896</v>
+      </c>
+    </row>
+    <row r="55" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="J55" s="8">
+        <v>37.683333333333195</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="4"/>
+        <v>36.353333333333197</v>
+      </c>
+    </row>
+    <row r="56" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="J56" s="5">
+        <v>38.569999999999894</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="4"/>
+        <v>37.239999999999895</v>
+      </c>
+    </row>
+    <row r="57" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="J57" s="5">
+        <v>39.899999999999892</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="4"/>
+        <v>38.569999999999894</v>
+      </c>
+    </row>
+    <row r="58" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="J58" s="5">
+        <v>41.229999999999897</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="4"/>
+        <v>39.899999999999899</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="J59" s="8">
+        <v>43.003333333333195</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="4"/>
+        <v>41.673333333333197</v>
+      </c>
+    </row>
+    <row r="60" spans="5:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J60" s="10">
+        <v>43.889999999999894</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="4"/>
+        <v>42.559999999999896</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/14次高調波の比較.xlsx
+++ b/Graphs/14次高調波の比較.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,9 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
     <sheet name="貼り付け用" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$2:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">強!$A$1:$J$131</definedName>
@@ -2076,11 +2079,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="987191424"/>
-        <c:axId val="987189856"/>
+        <c:axId val="520704160"/>
+        <c:axId val="1171237720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="987191424"/>
+        <c:axId val="520704160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="45"/>
@@ -2116,13 +2119,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2000"/>
+                  <a:t>時間差</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" sz="2000"/>
-                  <a:t>XUV-IR delay[fs]</a:t>
+                  <a:t>[fs]</a:t>
                 </a:r>
                 <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2189,12 +2197,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="987189856"/>
+        <c:crossAx val="1171237720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="987189856"/>
+        <c:axId val="1171237720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2314,7 +2322,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="987191424"/>
+        <c:crossAx val="520704160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2374,6 +2382,7 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3314,1971 +3323,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="987194560"/>
-        <c:axId val="987198480"/>
+        <c:axId val="515977256"/>
+        <c:axId val="515977648"/>
         <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="987194560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>XUV-IR delay[fs]</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="987198480"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="987198480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>信号強度</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>[a.u]</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="987194560"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.0300280261577475E-2"/>
-          <c:y val="3.3512866546977854E-2"/>
-          <c:w val="0.91644171597194424"/>
-          <c:h val="0.91093946290824956"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>変化後</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>強!$B:$B</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>42.559999999999896</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42.116666666666596</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41.673333333333197</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41.229999999999897</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40.564999999999891</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>39.899999999999899</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>39.456666666666599</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39.0133333333332</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>38.569999999999894</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37.904999999999895</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37.239999999999895</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>36.796666666666596</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>36.353333333333197</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>35.90999999999989</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>35.244999999999898</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>34.579999999999892</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34.247499999999896</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>33.9149999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>33.582499999999897</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>33.249999999999893</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>32.584999999999894</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31.919999999999895</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>31.476666666666596</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>31.033333333333296</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>30.589999999999897</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>29.924999999999898</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>29.259999999999899</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28.816666666666592</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28.373333333333292</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>27.929999999999893</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>27.486666666666594</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>27.043333333333294</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>26.599999999999895</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>26.267499999999892</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>25.934999999999896</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>25.602499999999893</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>25.269999999999897</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>24.604999999999897</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>23.939999999999898</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>23.607499999999895</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>23.274999999999892</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>22.942499999999896</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>22.609999999999893</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>22.166666666666593</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>21.723333333333294</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>21.279999999999895</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>20.836666666666595</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>20.393333333333295</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>19.949999999999896</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>19.506666666666597</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>19.063333333333297</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>18.619999999999898</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>18.353999999999893</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>18.087999999999894</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>17.821999999999896</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>17.555999999999898</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>17.289999999999893</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>16.957499999999893</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>16.624999999999893</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>16.292499999999894</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>15.959999999999894</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>15.627499999999891</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>15.294999999999895</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>14.962499999999892</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>14.629999999999896</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>14.186666666666596</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>13.743333333333297</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>13.299999999999891</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>13.033999999999892</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>12.767999999999894</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>12.501999999999896</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>12.235999999999891</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>11.969999999999892</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>11.703999999999894</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>11.437999999999896</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>11.17199999999989</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>10.905999999999892</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>10.639999999999894</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>10.307499999999891</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>9.9749999999999943</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>9.6424999999998917</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>9.3099999999999952</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>9.0883333333332956</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8.8666666666665961</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8.644999999999996</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8.4233333333332965</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8.2016666666665969</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>7.9799999999999969</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>7.7139999999999915</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>7.4479999999998938</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>7.1819999999999951</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>6.9159999999999968</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>6.6499999999999915</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>6.3839999999999932</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>6.117999999999995</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>5.8519999999999968</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>5.5859999999999914</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>5.3199999999999932</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>5.1299999999999955</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>4.9399999999999906</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>4.7499999999999929</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>4.5599999999999952</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>4.3699999999999903</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>4.1799999999999926</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>3.9899999999999949</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>3.7683333333332953</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>3.5466666666665958</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>3.3249999999999957</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>3.1033333333332962</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2.8816666666665967</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2.6599999999999966</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2.5390909090908949</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2.4181818181818002</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2.2972727272726914</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2.1763636363635968</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2.0554545454544879</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1.9345454545453933</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1.8136363636362987</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1.6927272727271898</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1.5718181818180952</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1.4509090909089863</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1.3299999999999912</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1.1822222222221868</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1.0344444444443965</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.88666666666659211</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.73888888888878768</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.59111111111109693</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.4433333333332925</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.29555555555548807</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.14777777777769785</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>強!$I:$I</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>-7.6248438642068494E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-8.6533184793335903E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5317802581549745E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.409129557182791E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.6504379653160634E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7809937891124532E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.9119963320355751E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2.5853182500858145E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.0507768123724669E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.5191158886766465E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.8629522246062985E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-4.6604031777510366E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2430411130764615E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.3189464651484454E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.6211970973462957E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.4542615355989563E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-4.8043896238687801E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-3.6216438164730268E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.5784447422571913E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.10396465187704464</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.10951841479872904</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-9.8541999841410821E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-8.7640168921067366E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.2794208510274106E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.8189868975474369E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.5396312094154456E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-1.2767216939840557E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.1241510177580667</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.1282413633647493E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.5673937432628977E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8.9771702188295596E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.2920852205057383E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-4.732396400809908E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-9.2576847073675722E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-8.2189253460895631E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.7738007475675356E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.10355326203099394</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.6188174740192348E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-3.3953794011451439E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-8.5274677306275859E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-4.7632506392637101E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-5.3494811698859536E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.10026214326258837</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.10273048233889255</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.6370073429947097E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.15490240875035627</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-8.5068982383250502E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.6884310737510468E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6.46769215792031E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.1383157040222778</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.13183631394697934</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.5982479817167005E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-9.2062609766112344E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-8.3012033152997017E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-7.807535500038866E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4.379888689213024E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.10355326203099394</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7.1567701500552264E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-1.8835217169088335E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-6.9230473310298676E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-0.13566993344748621</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-5.8945727159031264E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-2.8400031089767033E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3.5571089971116306E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6.1282955349284851E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6.1797192656848222E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.4851157740527584E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.3126547128082729E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-0.12764783144949762</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-0.10748972899301348</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-2.2434878322031931E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.7525191739857112E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>9.0388786957371639E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.15641685724850846</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.11826044902730634</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>6.9613599731811457E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.0270614438998458E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-0.14605752706026628</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-0.15222837475102674</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-8.1160778845768888E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-4.9380913238352565E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>4.6575768352972446E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.13029360202428922</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.1208316355651232</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8.5554956266275961E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>6.3545599502563679E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-7.7149727846774596E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-0.13937244206194246</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-0.16343874805590822</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-0.10152457622527837</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-2.1303556245392517E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4.8941259967763946E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>9.4399837956365931E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.17297529855204902</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.10396465187704464</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>6.313420965651298E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.2818004743544708E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-7.396145653988169E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-0.11232355968410916</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-0.12075705152814845</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-7.6841185462236575E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-5.9357117005081964E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-5.2593522494153427E-3</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>5.0072582044403367E-2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>9.7382414340233481E-2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.13019075456277654</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>9.0388786957371639E-2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>3.9582140970110598E-2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2.9503089741868528E-2</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-1.9657996861189728E-2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-8.6920236690478644E-2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-0.13854966236984109</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-0.17372349420717564</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-0.13782973013925237</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-7.889813469249006E-2</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-6.5630812157355084E-2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-6.429379515769032E-2</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>-2.3360505475645998E-2</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>3.7628039201369791E-2</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.10427319426158266</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.11003265210629241</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>8.5040718958712583E-2</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>5.9328853580544044E-2</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>8.8846075034681532E-2</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>4.9146954890789296E-2</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>3.9969192867253334E-3</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-4.4365725573139499E-3</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-5.8431489851467892E-2</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-0.11129508506898242</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-0.17382634166868832</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-0.15335969682766615</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="987199264"/>
-        <c:axId val="987198872"/>
-        <c:extLst/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="987199264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>XUV-IR delay[fs]</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="987198872"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="987198872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>信号強度</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>[a.u]</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="987199264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.6533801918827948E-2"/>
-          <c:y val="2.6331538001196888E-2"/>
-          <c:w val="0.91644171597194424"/>
-          <c:h val="0.91093946290824956"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$3:$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3299999999999912</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5390909090908949</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9899999999999949</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.3199999999999932</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.6499999999999915</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.2016666666665969</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0883333333332956</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.639999999999894</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.969999999999892</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.299999999999891</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.629999999999896</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16.292499999999894</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17.555999999999898</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18.619999999999898</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19.949999999999896</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21.279999999999895</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22.609999999999893</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23.939999999999898</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25.269999999999897</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>26.599999999999895</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>27.929999999999893</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>29.259999999999899</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>30.589999999999897</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>31.919999999999895</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>33.249999999999893</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>34.247499999999896</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>35.90999999999989</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>37.239999999999895</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>38.569999999999894</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>39.899999999999899</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>41.229999999999897</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42.559999999999896</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$C$3:$C$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>-0.27591175025078607</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27380062727763232</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.28006955645258247</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31008693594785569</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.31950571830598495</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25250761975934155</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.27112397341235378</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.26762691503860131</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.30111057571621891</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.23675835384344601</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.28271543312645292</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.30391322370882462</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.28473133916368754</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.20185798057382145</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.19855135607190708</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.21559134045248238</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.24000342396254418</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.16342977173903631</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.26772213197452033</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.20324391597442026</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.15861121770919595</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.1782970787636417</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.20371711529232084</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.13671901674567746</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.16327300042030105</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.170604704486061E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.19073972017762289</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.16695760730419693</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.12812063889602218</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.1188278506652201</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-9.1960324353125983E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.9909063017261161E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.10292181343058929</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$F$3:$F$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>0.14777777777769785</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3299999999999912</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5390909090908949</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.1799999999999926</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.1299999999999955</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.6499999999999915</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.2016666666665969</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0883333333332956</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.639999999999894</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.703999999999894</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.033999999999892</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.629999999999896</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.959</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17.555999999999898</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18.353999999999893</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19.506666666666597</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21.279999999999895</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22.609999999999893</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23.607499999999895</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25.269999999999897</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>26.267499999999892</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>27.929999999999893</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>28.816666666666592</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>30.589999999999897</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>31.919999999999895</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>33.582499999999897</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>34.247499999999896</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>36.353333333333197</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>37.239999999999895</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>38.569999999999894</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>39.899999999999899</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>41.673333333333197</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42.559999999999896</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$G$3:$G$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>-0.3405605674750703</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19037043888687577</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.25774155580428937</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.19159326993167924</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.2497375707837575</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.27096612138528675</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.23817625908743373</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.20493324496589901</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.22894944302209841</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.25618098238902653</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.18114786581614428</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.20482207850728051</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.22150129029465904</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.17914262656640748</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.22061195862571106</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.20693424122103196</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.18804018625049115</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.18592378054213585</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.16947538766120201</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.5323116768060046E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.18114786581614428</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.16180065902192181</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.20349232399846237</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.11677824328143015</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.20704965067425429</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.15891033109784086</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.10410950999352522</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.2620252831562406E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-8.8879705162791006E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.30649186660364E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-9.3326363507530929E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.72079652889097E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.11322515960024206</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="987195344"/>
-        <c:axId val="987199656"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="987195344"/>
+        <c:axId val="515977256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5387,12 +3437,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="987199656"/>
+        <c:crossAx val="515977648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="987199656"/>
+        <c:axId val="515977648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5505,7 +3555,4272 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="987195344"/>
+        <c:crossAx val="515977256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19514159414283738"/>
+          <c:y val="9.0583581358550269E-2"/>
+          <c:w val="0.76360109591564218"/>
+          <c:h val="0.8470248132980005"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>弱!$B:$B</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>42.559999999999896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.116666666666596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.673333333333197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.229999999999897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.564999999999891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.899999999999899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.456666666666599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.0133333333332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.569999999999894</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.904999999999895</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.239999999999895</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.796666666666596</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.353333333333197</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.90999999999989</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.244999999999898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.579999999999892</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34.247499999999896</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.9149999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.582499999999897</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33.249999999999893</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.584999999999894</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31.919999999999895</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.476666666666596</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.033333333333296</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30.589999999999897</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.924999999999898</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29.259999999999899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.816666666666592</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.373333333333292</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27.929999999999893</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27.486666666666594</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.043333333333294</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.599999999999895</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.267499999999892</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.934999999999896</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25.602499999999893</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.269999999999897</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.604999999999897</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23.939999999999898</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>23.607499999999895</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23.274999999999892</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22.942499999999896</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22.609999999999893</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22.166666666666593</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21.723333333333294</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21.279999999999895</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20.836666666666595</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20.393333333333295</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.949999999999896</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.506666666666597</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19.063333333333297</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>18.619999999999898</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18.353999999999893</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>18.087999999999894</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17.821999999999896</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17.555999999999898</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17.289999999999893</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16.957499999999893</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>16.624999999999893</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16.292499999999894</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.959999999999894</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15.627499999999891</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15.294999999999895</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>14.962499999999892</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14.629999999999896</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14.186666666666596</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13.743333333333297</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13.299999999999891</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.033999999999892</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12.767999999999894</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12.501999999999896</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12.235999999999891</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>11.969999999999892</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>11.703999999999894</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>11.437999999999896</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>11.17199999999989</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10.905999999999892</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10.639999999999894</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10.307499999999891</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.9749999999999943</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.6424999999998917</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.3099999999999952</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.0883333333332956</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.8666666666665961</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.644999999999996</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.4233333333332965</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.2016666666665969</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.9799999999999969</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.7139999999999915</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.4479999999998938</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.1819999999999951</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.9159999999999968</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.6499999999999915</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.3839999999999932</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.117999999999995</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.8519999999999968</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.5859999999999914</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.3199999999999932</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.1299999999999955</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.9399999999999906</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.7499999999999929</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.5599999999999952</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.3699999999999903</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.1799999999999926</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.9899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.7683333333332953</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.5466666666665958</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.3249999999999957</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.1033333333332962</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.8816666666665967</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.6599999999999966</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.5390909090908949</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.4181818181818002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.2972727272726914</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.1763636363635968</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.0554545454544879</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.9345454545453933</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.8136363636362987</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.6927272727271898</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.5718181818180952</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.4509090909089863</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.3299999999999912</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.1822222222221868</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.0344444444443965</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.88666666666659211</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.73888888888878768</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.59111111111109693</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.4433333333332925</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.29555555555548807</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.14777777777769785</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>弱!$I:$I</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>-0.14021148216739351</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6382101678714376E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2990023298882846E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1031722325109029E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.06732779735946E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8389987454447699E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.9455164585698068E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9083577274628117E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17187406655116794</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11058008244220084</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.0646992054483541E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.0829201266503378E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.363402831710377E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12647111535934047</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11751000657147978</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.7818866121034712E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.4294163331142841E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.0288547702969112E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.7818866121034712E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16219606906027839</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.4387358862536593E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.1165541549674413</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.4350917020132626E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.7420992890853695E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.15168170141585519</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.9083577274628117E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6.9239500567536888E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.12479837505227313</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.12300615329470099</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.3852679371527567E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.10615926877352291</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-4.4626321763546209E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.6883326363582056E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-5.8605651472608877E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.2545552303004958E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1387777047613358</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.17091821494712947</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.5047493876575656E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-8.7818866121034712E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.13829977895931655</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.383654937570942E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.4652607682657269E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.10090208495131131</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.1046060099169604</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-7.9992831112969717E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.10580082442200849</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-8.2143497222056272E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-3.8771730688810561E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.10544238007049406</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.18155206404205748</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.0909253838341598E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-3.2917139614074914E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.18023776808650457</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.12228926459167214</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-2.4911882430252705E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.12073600573510962</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.1727104367047016</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.12491785650277794</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.4184837803930942E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.14021148216739351</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.16578051257542267</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.12611267100782603</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-4.8927653981719339E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.17952087938347572</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.15180118286635999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.12766592986438854</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.1649441424218891E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-8.4413644781647645E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.13483481689467711</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.14702192484616763</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.14630503614313878</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.5130533484676502E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.15669992233705718</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.15801421829261006</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.3374753569508334E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-2.5389808232271941E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.1519206643168648</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.14976999820777825</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.12157237588864329</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.14702192484616763</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-2.1566401816118047E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.0148754405878481E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.13077244757751358</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.10639823167453252</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.0231794013979327E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-3.0049584801959496E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-7.1629129577633066E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.18585339626023059</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.17390525120974967</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-5.7291355517055977E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-3.6382101678714376E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.7337953282752856E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.18394169305215366</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.15180118286635999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.1426608519027416E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.4397514785829501E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-7.6408387597825436E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.15610251508453313</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.14654399904414839</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.21691857339148096</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.11296971145229703</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.14080888941991757</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.3441663181791026E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.11715156221996535</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.13411792819164825</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.13447637254316266</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.12515681940378756</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.10030467769878726</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.11595674771491726</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7.7842165003883149E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-1.9893661509050718E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-9.8751418842224742E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.10436704701595077</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.16064281020371587</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-5.4901726506959792E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-8.8595495549315964E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-1.9714439333293507E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.8891212139315373E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.15681940378756198</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.15347392317342731</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.17103769639763428</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.20759902025210586</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.21691857339148096</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.13818029750881175</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6.6730390106935905E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6.6371945755421477E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>8.8953939900830392E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7.8798016607921614E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-5.7530318418065593E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-7.1868092478642689E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-8.8595495549315964E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2105824776"/>
+        <c:axId val="2105817328"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2105824776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
+                  <a:t>時間差</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600"/>
+                  <a:t>[fs]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2105817328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2105817328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>信号強度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>[a.u.]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4619883040935672E-2"/>
+              <c:y val="0.16452950558213716"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2105824776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0300280261577475E-2"/>
+          <c:y val="3.3512866546977854E-2"/>
+          <c:w val="0.91644171597194424"/>
+          <c:h val="0.91093946290824956"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>変化後</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>強!$B:$B</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>42.559999999999896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.116666666666596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.673333333333197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.229999999999897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.564999999999891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.899999999999899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.456666666666599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.0133333333332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.569999999999894</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.904999999999895</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.239999999999895</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.796666666666596</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.353333333333197</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.90999999999989</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.244999999999898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.579999999999892</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34.247499999999896</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.9149999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.582499999999897</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33.249999999999893</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.584999999999894</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31.919999999999895</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.476666666666596</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.033333333333296</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30.589999999999897</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.924999999999898</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29.259999999999899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.816666666666592</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.373333333333292</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27.929999999999893</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27.486666666666594</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.043333333333294</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.599999999999895</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.267499999999892</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.934999999999896</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25.602499999999893</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.269999999999897</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.604999999999897</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23.939999999999898</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>23.607499999999895</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23.274999999999892</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22.942499999999896</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22.609999999999893</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22.166666666666593</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21.723333333333294</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21.279999999999895</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20.836666666666595</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20.393333333333295</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.949999999999896</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.506666666666597</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19.063333333333297</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>18.619999999999898</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18.353999999999893</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>18.087999999999894</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17.821999999999896</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17.555999999999898</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17.289999999999893</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16.957499999999893</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>16.624999999999893</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16.292499999999894</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.959999999999894</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15.627499999999891</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15.294999999999895</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>14.962499999999892</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14.629999999999896</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14.186666666666596</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13.743333333333297</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13.299999999999891</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.033999999999892</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12.767999999999894</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12.501999999999896</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12.235999999999891</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>11.969999999999892</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>11.703999999999894</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>11.437999999999896</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>11.17199999999989</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10.905999999999892</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10.639999999999894</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10.307499999999891</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.9749999999999943</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.6424999999998917</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.3099999999999952</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.0883333333332956</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.8666666666665961</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.644999999999996</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.4233333333332965</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.2016666666665969</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.9799999999999969</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.7139999999999915</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.4479999999998938</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.1819999999999951</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.9159999999999968</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.6499999999999915</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.3839999999999932</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.117999999999995</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.8519999999999968</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.5859999999999914</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.3199999999999932</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.1299999999999955</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.9399999999999906</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.7499999999999929</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.5599999999999952</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.3699999999999903</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.1799999999999926</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.9899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.7683333333332953</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.5466666666665958</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.3249999999999957</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.1033333333332962</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.8816666666665967</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.6599999999999966</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.5390909090908949</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.4181818181818002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.2972727272726914</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.1763636363635968</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.0554545454544879</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.9345454545453933</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.8136363636362987</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.6927272727271898</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.5718181818180952</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.4509090909089863</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.3299999999999912</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.1822222222221868</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.0344444444443965</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.88666666666659211</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.73888888888878768</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.59111111111109693</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.4433333333332925</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.29555555555548807</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.14777777777769785</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>強!$I:$I</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>-7.6248438642068494E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.6533184793335903E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5317802581549745E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.409129557182791E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6504379653160634E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7809937891124532E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.9119963320355751E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.5853182500858145E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0507768123724669E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5191158886766465E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.8629522246062985E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.6604031777510366E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2430411130764615E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.3189464651484454E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6211970973462957E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4542615355989563E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.8043896238687801E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.6216438164730268E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.5784447422571913E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10396465187704464</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.10951841479872904</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9.8541999841410821E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-8.7640168921067366E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2794208510274106E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8189868975474369E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.5396312094154456E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2767216939840557E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.1241510177580667</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.1282413633647493E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5673937432628977E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.9771702188295596E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2920852205057383E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4.732396400809908E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-9.2576847073675722E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-8.2189253460895631E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.7738007475675356E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.10355326203099394</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.6188174740192348E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.3953794011451439E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-8.5274677306275859E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-4.7632506392637101E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-5.3494811698859536E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.10026214326258837</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.10273048233889255</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.6370073429947097E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.15490240875035627</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-8.5068982383250502E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.6884310737510468E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.46769215792031E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.1383157040222778</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.13183631394697934</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.5982479817167005E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-9.2062609766112344E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-8.3012033152997017E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-7.807535500038866E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.379888689213024E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.10355326203099394</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.1567701500552264E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.8835217169088335E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-6.9230473310298676E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.13566993344748621</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-5.8945727159031264E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-2.8400031089767033E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.5571089971116306E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.1282955349284851E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.1797192656848222E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.4851157740527584E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.3126547128082729E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.12764783144949762</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.10748972899301348</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.2434878322031931E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.7525191739857112E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.0388786957371639E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.15641685724850846</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.11826044902730634</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.9613599731811457E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.0270614438998458E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.14605752706026628</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.15222837475102674</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-8.1160778845768888E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-4.9380913238352565E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.6575768352972446E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.13029360202428922</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.1208316355651232</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.5554956266275961E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.3545599502563679E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-7.7149727846774596E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.13937244206194246</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.16343874805590822</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.10152457622527837</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.1303556245392517E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.8941259967763946E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.4399837956365931E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.17297529855204902</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.10396465187704464</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.313420965651298E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.2818004743544708E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-7.396145653988169E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.11232355968410916</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.12075705152814845</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-7.6841185462236575E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-5.9357117005081964E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-5.2593522494153427E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.0072582044403367E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>9.7382414340233481E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.13019075456277654</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9.0388786957371639E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.9582140970110598E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.9503089741868528E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-1.9657996861189728E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-8.6920236690478644E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.13854966236984109</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.17372349420717564</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.13782973013925237</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-7.889813469249006E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-6.5630812157355084E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-6.429379515769032E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-2.3360505475645998E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.7628039201369791E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.10427319426158266</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.11003265210629241</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>8.5040718958712583E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5.9328853580544044E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8.8846075034681532E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4.9146954890789296E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3.9969192867253334E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-4.4365725573139499E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-5.8431489851467892E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.11129508506898242</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.17382634166868832</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.15335969682766615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="615348240"/>
+        <c:axId val="613286824"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="615348240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>XUV-IR delay[fs]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613286824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="613286824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>信号強度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[a.u]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="615348240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19514159414283738"/>
+          <c:y val="9.0583581358550269E-2"/>
+          <c:w val="0.76360109591564218"/>
+          <c:h val="0.8470248132980005"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>強!$B:$B</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>42.559999999999896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.116666666666596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.673333333333197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.229999999999897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.564999999999891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.899999999999899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.456666666666599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.0133333333332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.569999999999894</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.904999999999895</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.239999999999895</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.796666666666596</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.353333333333197</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35.90999999999989</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.244999999999898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.579999999999892</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34.247499999999896</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.9149999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.582499999999897</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33.249999999999893</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.584999999999894</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31.919999999999895</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.476666666666596</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.033333333333296</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30.589999999999897</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.924999999999898</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29.259999999999899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.816666666666592</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.373333333333292</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27.929999999999893</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27.486666666666594</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.043333333333294</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.599999999999895</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.267499999999892</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.934999999999896</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25.602499999999893</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.269999999999897</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.604999999999897</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23.939999999999898</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>23.607499999999895</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23.274999999999892</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22.942499999999896</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22.609999999999893</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22.166666666666593</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21.723333333333294</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21.279999999999895</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20.836666666666595</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20.393333333333295</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.949999999999896</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.506666666666597</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19.063333333333297</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>18.619999999999898</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18.353999999999893</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>18.087999999999894</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17.821999999999896</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17.555999999999898</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17.289999999999893</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16.957499999999893</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>16.624999999999893</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16.292499999999894</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.959999999999894</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15.627499999999891</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15.294999999999895</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>14.962499999999892</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14.629999999999896</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14.186666666666596</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13.743333333333297</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13.299999999999891</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.033999999999892</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12.767999999999894</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12.501999999999896</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12.235999999999891</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>11.969999999999892</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>11.703999999999894</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>11.437999999999896</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>11.17199999999989</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10.905999999999892</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10.639999999999894</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10.307499999999891</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.9749999999999943</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.6424999999998917</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.3099999999999952</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.0883333333332956</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.8666666666665961</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.644999999999996</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.4233333333332965</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.2016666666665969</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.9799999999999969</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.7139999999999915</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.4479999999998938</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.1819999999999951</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.9159999999999968</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.6499999999999915</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.3839999999999932</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.117999999999995</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.8519999999999968</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.5859999999999914</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.3199999999999932</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.1299999999999955</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.9399999999999906</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.7499999999999929</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.5599999999999952</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.3699999999999903</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.1799999999999926</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.9899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.7683333333332953</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.5466666666665958</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.3249999999999957</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.1033333333332962</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.8816666666665967</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.6599999999999966</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.5390909090908949</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.4181818181818002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.2972727272726914</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.1763636363635968</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.0554545454544879</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.9345454545453933</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.8136363636362987</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.6927272727271898</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.5718181818180952</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.4509090909089863</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.3299999999999912</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.1822222222221868</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.0344444444443965</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.88666666666659211</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.73888888888878768</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.59111111111109693</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.4433333333332925</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.29555555555548807</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.14777777777769785</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>強!$I:$I</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>-7.6248438642068494E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.6533184793335903E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5317802581549745E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.409129557182791E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6504379653160634E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7809937891124532E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.9119963320355751E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.5853182500858145E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0507768123724669E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5191158886766465E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.8629522246062985E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.6604031777510366E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2430411130764615E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.3189464651484454E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6211970973462957E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4542615355989563E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.8043896238687801E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.6216438164730268E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.5784447422571913E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10396465187704464</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.10951841479872904</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9.8541999841410821E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-8.7640168921067366E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2794208510274106E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8189868975474369E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.5396312094154456E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2767216939840557E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.1241510177580667</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.1282413633647493E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5673937432628977E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.9771702188295596E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2920852205057383E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4.732396400809908E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-9.2576847073675722E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-8.2189253460895631E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.7738007475675356E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.10355326203099394</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.6188174740192348E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.3953794011451439E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-8.5274677306275859E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-4.7632506392637101E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-5.3494811698859536E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.10026214326258837</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.10273048233889255</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.6370073429947097E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.15490240875035627</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-8.5068982383250502E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.6884310737510468E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.46769215792031E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.1383157040222778</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.13183631394697934</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.5982479817167005E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-9.2062609766112344E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-8.3012033152997017E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-7.807535500038866E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.379888689213024E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.10355326203099394</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.1567701500552264E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.8835217169088335E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-6.9230473310298676E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.13566993344748621</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-5.8945727159031264E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-2.8400031089767033E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.5571089971116306E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.1282955349284851E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.1797192656848222E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.4851157740527584E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.3126547128082729E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.12764783144949762</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.10748972899301348</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.2434878322031931E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.7525191739857112E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.0388786957371639E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.15641685724850846</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.11826044902730634</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.9613599731811457E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.0270614438998458E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.14605752706026628</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.15222837475102674</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-8.1160778845768888E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-4.9380913238352565E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.6575768352972446E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.13029360202428922</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.1208316355651232</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.5554956266275961E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.3545599502563679E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-7.7149727846774596E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.13937244206194246</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.16343874805590822</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.10152457622527837</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.1303556245392517E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.8941259967763946E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.4399837956365931E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.17297529855204902</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.10396465187704464</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.313420965651298E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.2818004743544708E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-7.396145653988169E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.11232355968410916</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.12075705152814845</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-7.6841185462236575E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-5.9357117005081964E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-5.2593522494153427E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.0072582044403367E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>9.7382414340233481E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.13019075456277654</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9.0388786957371639E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.9582140970110598E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.9503089741868528E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-1.9657996861189728E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-8.6920236690478644E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.13854966236984109</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.17372349420717564</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.13782973013925237</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-7.889813469249006E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-6.5630812157355084E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-6.429379515769032E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-2.3360505475645998E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.7628039201369791E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.10427319426158266</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.11003265210629241</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>8.5040718958712583E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5.9328853580544044E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8.8846075034681532E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4.9146954890789296E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3.9969192867253334E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-4.4365725573139499E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-5.8431489851467892E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.11129508506898242</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.17382634166868832</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.15335969682766615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2105833400"/>
+        <c:axId val="2105833792"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2105833400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
+                  <a:t>時間差</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600"/>
+                  <a:t>[fs]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2105833792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2105833792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>信号強度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0">
+                    <a:latin typeface="+mn-ea"/>
+                    <a:ea typeface="+mn-ea"/>
+                  </a:rPr>
+                  <a:t>[a.u.]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4619883040935672E-2"/>
+              <c:y val="0.16452950558213716"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2105833400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6533801918827948E-2"/>
+          <c:y val="2.6331538001196888E-2"/>
+          <c:w val="0.91644171597194424"/>
+          <c:h val="0.91093946290824956"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3299999999999912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5390909090908949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3199999999999932</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6499999999999915</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2016666666665969</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0883333333332956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.639999999999894</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.969999999999892</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.299999999999891</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.629999999999896</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.292499999999894</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.555999999999898</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.619999999999898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.949999999999896</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.279999999999895</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.609999999999893</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.939999999999898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.269999999999897</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26.599999999999895</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.929999999999893</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29.259999999999899</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.589999999999897</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31.919999999999895</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33.249999999999893</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>34.247499999999896</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35.90999999999989</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37.239999999999895</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38.569999999999894</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39.899999999999899</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41.229999999999897</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42.559999999999896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>-0.27591175025078607</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27380062727763232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.28006955645258247</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31008693594785569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.31950571830598495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25250761975934155</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.27112397341235378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26762691503860131</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.30111057571621891</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23675835384344601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.28271543312645292</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30391322370882462</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.28473133916368754</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20185798057382145</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.19855135607190708</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.21559134045248238</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.24000342396254418</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16342977173903631</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.26772213197452033</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20324391597442026</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.15861121770919595</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1782970787636417</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.20371711529232084</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.13671901674567746</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.16327300042030105</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.170604704486061E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.19073972017762289</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.16695760730419693</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.12812063889602218</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1188278506652201</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.1960324353125983E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.9909063017261161E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.10292181343058929</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$3:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.14777777777769785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3299999999999912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5390909090908949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1799999999999926</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1299999999999955</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6499999999999915</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2016666666665969</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0883333333332956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.639999999999894</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.703999999999894</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.033999999999892</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.629999999999896</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.959</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.555999999999898</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.353999999999893</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.506666666666597</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.279999999999895</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.609999999999893</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.607499999999895</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.269999999999897</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26.267499999999892</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.929999999999893</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.816666666666592</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.589999999999897</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31.919999999999895</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33.582499999999897</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>34.247499999999896</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36.353333333333197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37.239999999999895</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38.569999999999894</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39.899999999999899</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41.673333333333197</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42.559999999999896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$3:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>-0.3405605674750703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19037043888687577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.25774155580428937</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19159326993167924</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.2497375707837575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27096612138528675</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.23817625908743373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20493324496589901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.22894944302209841</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25618098238902653</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.18114786581614428</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20482207850728051</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.22150129029465904</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17914262656640748</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.22061195862571106</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20693424122103196</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.18804018625049115</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18592378054213585</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.16947538766120201</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5323116768060046E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.18114786581614428</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.16180065902192181</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.20349232399846237</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.11677824328143015</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.20704965067425429</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.15891033109784086</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.10410950999352522</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2620252831562406E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-8.8879705162791006E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.30649186660364E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.3326363507530929E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.72079652889097E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.11322515960024206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2105821248"/>
+        <c:axId val="2105818112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2105821248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>XUV-IR delay[fs]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2105818112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2105818112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>信号強度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[a.u]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2105821248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5635,6 +7950,12 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5674,7 +7995,13 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7778,20 +10105,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7847,6 +11206,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7879,6 +11270,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7922,6 +11345,1078 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="弱"/>
+      <sheetName val="強"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="貼り付け用"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="B1">
+            <v>42.559999999999896</v>
+          </cell>
+          <cell r="I1">
+            <v>-0.11322515960024206</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>42.116666666666596</v>
+          </cell>
+          <cell r="I2">
+            <v>-0.1054435074969472</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>41.673333333333197</v>
+          </cell>
+          <cell r="I3">
+            <v>8.72079652889097E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>41.229999999999897</v>
+          </cell>
+          <cell r="I4">
+            <v>7.5090821299493432E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>40.564999999999891</v>
+          </cell>
+          <cell r="I5">
+            <v>3.4070398069267691E-2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>39.899999999999899</v>
+          </cell>
+          <cell r="I6">
+            <v>-9.3326363507530929E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>39.456666666666599</v>
+          </cell>
+          <cell r="I7">
+            <v>-4.6414117970524804E-2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>39.0133333333332</v>
+          </cell>
+          <cell r="I8">
+            <v>-7.8393568299060228E-3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>38.569999999999894</v>
+          </cell>
+          <cell r="I9">
+            <v>2.30649186660364E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>37.904999999999895</v>
+          </cell>
+          <cell r="I10">
+            <v>2.3176085124654897E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>37.239999999999895</v>
+          </cell>
+          <cell r="I11">
+            <v>-8.8879705162791006E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>36.796666666666596</v>
+          </cell>
+          <cell r="I12">
+            <v>-9.1881199545490455E-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>36.353333333333197</v>
+          </cell>
+          <cell r="I13">
+            <v>2.2620252831562406E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>35.90999999999989</v>
+          </cell>
+          <cell r="I14">
+            <v>-5.7271941161545631E-3</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>35.244999999999898</v>
+          </cell>
+          <cell r="I15">
+            <v>1.1392440511094117E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>34.579999999999892</v>
+          </cell>
+          <cell r="I16">
+            <v>-0.10410950999352522</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>34.247499999999896</v>
+          </cell>
+          <cell r="I17">
+            <v>-0.142461938216907</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>33.9149999999999</v>
+          </cell>
+          <cell r="I18">
+            <v>-1.3175346843593923E-2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>33.582499999999897</v>
+          </cell>
+          <cell r="I19">
+            <v>0.15891033109784086</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>33.249999999999893</v>
+          </cell>
+          <cell r="I20">
+            <v>0.10021444094727396</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>32.584999999999894</v>
+          </cell>
+          <cell r="I21">
+            <v>-3.1740145432883074E-2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>31.919999999999895</v>
+          </cell>
+          <cell r="I22">
+            <v>-0.20704965067425429</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>31.476666666666596</v>
+          </cell>
+          <cell r="I23">
+            <v>-9.7773021852270839E-2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>31.033333333333296</v>
+          </cell>
+          <cell r="I24">
+            <v>3.6293727241637652E-2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>30.589999999999897</v>
+          </cell>
+          <cell r="I25">
+            <v>0.11677824328143015</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>29.924999999999898</v>
+          </cell>
+          <cell r="I26">
+            <v>-1.0285018919512978E-2</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>29.259999999999899</v>
+          </cell>
+          <cell r="I27">
+            <v>-0.11467032356228253</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>28.816666666666592</v>
+          </cell>
+          <cell r="I28">
+            <v>-0.20349232399846237</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>28.373333333333292</v>
+          </cell>
+          <cell r="I29">
+            <v>4.5187043931117485E-2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>27.929999999999893</v>
+          </cell>
+          <cell r="I30">
+            <v>0.16180065902192181</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>27.486666666666594</v>
+          </cell>
+          <cell r="I31">
+            <v>8.1538475899366303E-2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>27.043333333333294</v>
+          </cell>
+          <cell r="I32">
+            <v>3.2514067648608723E-2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>26.599999999999895</v>
+          </cell>
+          <cell r="I33">
+            <v>-0.15491258158217877</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>26.267499999999892</v>
+          </cell>
+          <cell r="I34">
+            <v>-0.18114786581614428</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>25.934999999999896</v>
+          </cell>
+          <cell r="I35">
+            <v>-3.7076135446570978E-2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>25.602499999999893</v>
+          </cell>
+          <cell r="I36">
+            <v>9.0654125506083136E-2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>25.269999999999897</v>
+          </cell>
+          <cell r="I37">
+            <v>9.5323116768060046E-2</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>24.604999999999897</v>
+          </cell>
+          <cell r="I38">
+            <v>7.6869484637389393E-2</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>23.939999999999898</v>
+          </cell>
+          <cell r="I39">
+            <v>-0.11333632605886056</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>23.607499999999895</v>
+          </cell>
+          <cell r="I40">
+            <v>-0.16947538766120201</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>23.274999999999892</v>
+          </cell>
+          <cell r="I41">
+            <v>-2.3922003575996254E-3</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>22.942499999999896</v>
+          </cell>
+          <cell r="I42">
+            <v>8.9431294461279662E-2</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>22.609999999999893</v>
+          </cell>
+          <cell r="I43">
+            <v>0.18592378054213585</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>22.166666666666593</v>
+          </cell>
+          <cell r="I44">
+            <v>6.6864503361724587E-2</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>21.723333333333294</v>
+          </cell>
+          <cell r="I45">
+            <v>-8.532237848699907E-2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>21.279999999999895</v>
+          </cell>
+          <cell r="I46">
+            <v>-0.18804018625049115</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>20.836666666666595</v>
+          </cell>
+          <cell r="I47">
+            <v>-1.4175844971160406E-2</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>20.393333333333295</v>
+          </cell>
+          <cell r="I48">
+            <v>0.1301182183156499</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>19.949999999999896</v>
+          </cell>
+          <cell r="I49">
+            <v>0.13267504686387535</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>19.506666666666597</v>
+          </cell>
+          <cell r="I50">
+            <v>0.20693424122103196</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>19.063333333333297</v>
+          </cell>
+          <cell r="I51">
+            <v>0.11333208306425671</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>18.619999999999898</v>
+          </cell>
+          <cell r="I52">
+            <v>-6.5757081770143444E-2</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>18.353999999999893</v>
+          </cell>
+          <cell r="I53">
+            <v>-0.22061195862571106</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>18.087999999999894</v>
+          </cell>
+          <cell r="I54">
+            <v>-9.0658368500686981E-2</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>17.821999999999896</v>
+          </cell>
+          <cell r="I55">
+            <v>2.4398916169458374E-2</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>17.555999999999898</v>
+          </cell>
+          <cell r="I56">
+            <v>0.14023436604993322</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>17.289999999999893</v>
+          </cell>
+          <cell r="I57">
+            <v>0.17914262656640748</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>16.957499999999893</v>
+          </cell>
+          <cell r="I58">
+            <v>0.13667703937414127</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>16.624999999999893</v>
+          </cell>
+          <cell r="I59">
+            <v>-4.1300460874073901E-2</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>16.292499999999894</v>
+          </cell>
+          <cell r="I60">
+            <v>-0.21094047672590174</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>15.959999999999894</v>
+          </cell>
+          <cell r="I61">
+            <v>-0.22150129029465904</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>15.627499999999891</v>
+          </cell>
+          <cell r="I62">
+            <v>-7.5650896587189764E-2</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>15.294999999999895</v>
+          </cell>
+          <cell r="I63">
+            <v>6.3640676061788137E-2</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>14.962499999999892</v>
+          </cell>
+          <cell r="I64">
+            <v>0.14734901940151707</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>14.629999999999896</v>
+          </cell>
+          <cell r="I65">
+            <v>0.20482207850728051</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>14.186666666666596</v>
+          </cell>
+          <cell r="I66">
+            <v>0.11622241098833766</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67">
+            <v>13.743333333333297</v>
+          </cell>
+          <cell r="I67">
+            <v>7.1533494623701496E-2</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>13.299999999999891</v>
+          </cell>
+          <cell r="I68">
+            <v>-0.15013242386158338</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>13.033999999999892</v>
+          </cell>
+          <cell r="I69">
+            <v>-0.18114786581614428</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>12.767999999999894</v>
+          </cell>
+          <cell r="I70">
+            <v>-8.8101539952461519E-2</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>12.501999999999896</v>
+          </cell>
+          <cell r="I71">
+            <v>7.1199995247845996E-2</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>12.235999999999891</v>
+          </cell>
+          <cell r="I72">
+            <v>0.12633855872262098</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>11.969999999999892</v>
+          </cell>
+          <cell r="I73">
+            <v>0.14968351503250554</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>11.703999999999894</v>
+          </cell>
+          <cell r="I74">
+            <v>0.25618098238902653</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>11.437999999999896</v>
+          </cell>
+          <cell r="I75">
+            <v>0.20059775307977759</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>11.17199999999989</v>
+          </cell>
+          <cell r="I76">
+            <v>0.11499957994353419</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>10.905999999999892</v>
+          </cell>
+          <cell r="I77">
+            <v>-0.18314886207127726</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>10.639999999999894</v>
+          </cell>
+          <cell r="I78">
+            <v>-0.22894944302209841</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>10.307499999999891</v>
+          </cell>
+          <cell r="I79">
+            <v>-0.17503371059212691</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>9.9749999999999943</v>
+          </cell>
+          <cell r="I80">
+            <v>-8.3951891229985132E-3</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>9.6424999999998917</v>
+          </cell>
+          <cell r="I81">
+            <v>6.8087334406528061E-2</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>9.3099999999999952</v>
+          </cell>
+          <cell r="I82">
+            <v>0.18525678179042487</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>9.0883333333332956</v>
+          </cell>
+          <cell r="I83">
+            <v>0.20493324496589901</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>8.8666666666665961</v>
+          </cell>
+          <cell r="I84">
+            <v>0.16791481424593921</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>8.644999999999996</v>
+          </cell>
+          <cell r="I85">
+            <v>9.8435777609377995E-2</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>8.4233333333332965</v>
+          </cell>
+          <cell r="I86">
+            <v>-9.3326363507530929E-2</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>8.2016666666665969</v>
+          </cell>
+          <cell r="I87">
+            <v>-0.20460398858464734</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>7.9799999999999969</v>
+          </cell>
+          <cell r="I88">
+            <v>-0.23817625908743373</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>7.7139999999999915</v>
+          </cell>
+          <cell r="I89">
+            <v>-0.17914686956101133</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90">
+            <v>7.4479999999998938</v>
+          </cell>
+          <cell r="I90">
+            <v>-1.3286513302212422E-2</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>7.1819999999999951</v>
+          </cell>
+          <cell r="I91">
+            <v>0.1350095424948638</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>6.9159999999999968</v>
+          </cell>
+          <cell r="I92">
+            <v>0.18169945511463292</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>6.6499999999999915</v>
+          </cell>
+          <cell r="I93">
+            <v>0.27096612138528675</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>6.3839999999999932</v>
+          </cell>
+          <cell r="I94">
+            <v>0.21538289207603781</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>6.117999999999995</v>
+          </cell>
+          <cell r="I95">
+            <v>0.15702050130132639</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>5.8519999999999968</v>
+          </cell>
+          <cell r="I96">
+            <v>3.9851053917429588E-2</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>5.5859999999999914</v>
+          </cell>
+          <cell r="I97">
+            <v>-8.3321382231866109E-2</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>5.3199999999999932</v>
+          </cell>
+          <cell r="I98">
+            <v>-0.22817127781176891</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>5.1299999999999955</v>
+          </cell>
+          <cell r="I99">
+            <v>-0.2497375707837575</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>4.9399999999999906</v>
+          </cell>
+          <cell r="I100">
+            <v>-0.12578696942413231</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>4.7499999999999929</v>
+          </cell>
+          <cell r="I101">
+            <v>-3.7631967739663465E-2</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>4.5599999999999952</v>
+          </cell>
+          <cell r="I102">
+            <v>3.8331213250362584E-3</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>4.3699999999999903</v>
+          </cell>
+          <cell r="I103">
+            <v>8.7541464664765201E-2</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104">
+            <v>4.1799999999999926</v>
+          </cell>
+          <cell r="I104">
+            <v>0.19159326993167924</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105">
+            <v>3.9899999999999949</v>
+          </cell>
+          <cell r="I105">
+            <v>0.15279617587382346</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106">
+            <v>3.7683333333332953</v>
+          </cell>
+          <cell r="I106">
+            <v>0.19859675682464462</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107">
+            <v>3.5466666666665958</v>
+          </cell>
+          <cell r="I107">
+            <v>0.19148210347306074</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108">
+            <v>3.3249999999999957</v>
+          </cell>
+          <cell r="I108">
+            <v>8.8986628626805675E-2</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109">
+            <v>3.1033333333332962</v>
+          </cell>
+          <cell r="I109">
+            <v>-5.2083607360068195E-2</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110">
+            <v>2.8816666666665967</v>
+          </cell>
+          <cell r="I110">
+            <v>-0.10989016584168712</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111">
+            <v>2.6599999999999966</v>
+          </cell>
+          <cell r="I111">
+            <v>-0.25774155580428937</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112">
+            <v>2.5390909090908949</v>
+          </cell>
+          <cell r="I112">
+            <v>-0.23117277219446836</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113">
+            <v>2.4181818181818002</v>
+          </cell>
+          <cell r="I113">
+            <v>-0.24795890744586155</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114">
+            <v>2.2972727272726914</v>
+          </cell>
+          <cell r="I114">
+            <v>-0.21494246923616767</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115">
+            <v>2.1763636363635968</v>
+          </cell>
+          <cell r="I115">
+            <v>-0.10911200063135763</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116">
+            <v>2.0554545454544879</v>
+          </cell>
+          <cell r="I116">
+            <v>-7.8393568299060228E-3</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117">
+            <v>1.9345454545453933</v>
+          </cell>
+          <cell r="I117">
+            <v>1.8507093862677983E-2</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118">
+            <v>1.8136363636362987</v>
+          </cell>
+          <cell r="I118">
+            <v>4.774387247934294E-2</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119">
+            <v>1.6927272727271898</v>
+          </cell>
+          <cell r="I119">
+            <v>0.18681311221108385</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120">
+            <v>1.5718181818180952</v>
+          </cell>
+          <cell r="I120">
+            <v>0.19459476431437869</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121">
+            <v>1.4509090909089863</v>
+          </cell>
+          <cell r="I121">
+            <v>0.18014312469397398</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122">
+            <v>1.3299999999999912</v>
+          </cell>
+          <cell r="I122">
+            <v>0.19037043888687577</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123">
+            <v>1.1822222222221868</v>
+          </cell>
+          <cell r="I123">
+            <v>0.20526674434175449</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124">
+            <v>1.0344444444443965</v>
+          </cell>
+          <cell r="I124">
+            <v>0.19448359785576019</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125">
+            <v>0.88666666666659211</v>
+          </cell>
+          <cell r="I125">
+            <v>0.13434254374315283</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126">
+            <v>0.73888888888878768</v>
+          </cell>
+          <cell r="I126">
+            <v>-2.8003764384816469E-4</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127">
+            <v>0.59111111111109693</v>
+          </cell>
+          <cell r="I127">
+            <v>-0.11211349501405708</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128">
+            <v>0.4433333333332925</v>
+          </cell>
+          <cell r="I128">
+            <v>-0.16291656660271062</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129">
+            <v>0.29555555555548807</v>
+          </cell>
+          <cell r="I129">
+            <v>-0.26919170104199464</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130">
+            <v>0.14777777777769785</v>
+          </cell>
+          <cell r="I130">
+            <v>-0.3405605674750703</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131">
+            <v>0</v>
+          </cell>
+          <cell r="I131">
+            <v>-0.25896438684909284</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8213,7 +12708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
@@ -8229,8 +12724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11825,8 +16320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15408,7 +19903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3:J35"/>
     </sheetView>
   </sheetViews>
